--- a/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8C503-B90E-403A-933C-63E9B8A7F7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E55353-9BFD-4FE0-9BBB-E390A63C1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 3 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 4 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 5 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 6 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1483,95 +1483,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>5802</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>5647</v>
       </c>
       <c r="AA11" s="11">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="AB11" s="11">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AC11" s="11">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AD11" s="11">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AE11" s="11">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AF11" s="11">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AG11" s="11">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AH11" s="11">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AI11" s="11">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AJ11" s="11">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AK11" s="11">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AL11" s="11">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AM11" s="11">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AN11" s="11">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AO11" s="11">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AP11" s="11">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AQ11" s="11">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AR11" s="11">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AS11" s="11">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AT11" s="11">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AU11" s="11">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AV11" s="11">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AW11" s="11">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AX11" s="11">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AY11" s="11">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AZ11" s="11">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="BA11" s="11">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="BB11" s="11">
-        <v>8972</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1641,94 +1641,94 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="AA12" s="13">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="AB12" s="13">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AC12" s="13">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AD12" s="13">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AE12" s="13">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AF12" s="13">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AG12" s="13">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AH12" s="13">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AI12" s="13">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AK12" s="13">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AL12" s="13">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AM12" s="13">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AN12" s="13">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AO12" s="13">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AP12" s="13">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AQ12" s="13">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AR12" s="13">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AS12" s="13">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AT12" s="13">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AU12" s="13">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AV12" s="13">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AW12" s="13">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AX12" s="13">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AY12" s="13">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AZ12" s="13">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="BA12" s="13">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="BB12" s="13">
-        <v>8972</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1856,11 +1856,11 @@
       <c r="X14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>58</v>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
       </c>
       <c r="AA14" s="11">
         <v>0</v>
@@ -1886,23 +1886,23 @@
       <c r="AH14" s="11">
         <v>0</v>
       </c>
-      <c r="AI14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="11">
-        <v>0</v>
+      <c r="AI14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="11" t="s">
-        <v>58</v>
+      <c r="AL14" s="11">
+        <v>0</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN14" s="11">
-        <v>0</v>
+      <c r="AN14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO14" s="11" t="s">
         <v>58</v>
@@ -1919,20 +1919,20 @@
       <c r="AS14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>58</v>
+      <c r="AT14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="11">
+        <v>0</v>
       </c>
       <c r="AY14" s="11">
         <v>0</v>
@@ -2227,11 +2227,11 @@
       <c r="X17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>58</v>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>0</v>
       </c>
       <c r="AA17" s="17">
         <v>0</v>
@@ -2385,94 +2385,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="Z18" s="13">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="AA18" s="13">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="AB18" s="13">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AC18" s="13">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AD18" s="13">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AE18" s="13">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AF18" s="13">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AG18" s="13">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AH18" s="13">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AI18" s="13">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AJ18" s="13">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AK18" s="13">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AL18" s="13">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AM18" s="13">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AN18" s="13">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AO18" s="13">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AP18" s="13">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AQ18" s="13">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AR18" s="13">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AS18" s="13">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AT18" s="13">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AU18" s="13">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AV18" s="13">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AW18" s="13">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AX18" s="13">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AY18" s="13">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AZ18" s="13">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="BA18" s="13">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="BB18" s="13">
-        <v>8972</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2977,95 +2977,95 @@
       <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
+      <c r="Y25" s="11">
+        <v>6977</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>6031</v>
       </c>
       <c r="AA25" s="11">
-        <v>6977</v>
+        <v>6331</v>
       </c>
       <c r="AB25" s="11">
-        <v>6031</v>
+        <v>6421</v>
       </c>
       <c r="AC25" s="11">
-        <v>6331</v>
+        <v>5224</v>
       </c>
       <c r="AD25" s="11">
-        <v>6421</v>
+        <v>5798</v>
       </c>
       <c r="AE25" s="11">
-        <v>5224</v>
+        <v>6294</v>
       </c>
       <c r="AF25" s="11">
-        <v>5798</v>
+        <v>5804</v>
       </c>
       <c r="AG25" s="11">
-        <v>6294</v>
+        <v>6550</v>
       </c>
       <c r="AH25" s="11">
-        <v>5804</v>
+        <v>4205</v>
       </c>
       <c r="AI25" s="11">
-        <v>6550</v>
+        <v>6761</v>
       </c>
       <c r="AJ25" s="11">
-        <v>4205</v>
+        <v>5594</v>
       </c>
       <c r="AK25" s="11">
-        <v>6761</v>
+        <v>5729</v>
       </c>
       <c r="AL25" s="11">
-        <v>5594</v>
+        <v>6272</v>
       </c>
       <c r="AM25" s="11">
-        <v>5729</v>
+        <v>6932</v>
       </c>
       <c r="AN25" s="11">
-        <v>6272</v>
+        <v>4751</v>
       </c>
       <c r="AO25" s="11">
-        <v>6932</v>
+        <v>5811</v>
       </c>
       <c r="AP25" s="11">
-        <v>4751</v>
+        <v>5109</v>
       </c>
       <c r="AQ25" s="11">
-        <v>5811</v>
+        <v>5323</v>
       </c>
       <c r="AR25" s="11">
-        <v>5109</v>
+        <v>4638</v>
       </c>
       <c r="AS25" s="11">
-        <v>5323</v>
+        <v>7819</v>
       </c>
       <c r="AT25" s="11">
-        <v>4638</v>
+        <v>5200</v>
       </c>
       <c r="AU25" s="11">
-        <v>7819</v>
+        <v>5197</v>
       </c>
       <c r="AV25" s="11">
-        <v>5200</v>
+        <v>5052</v>
       </c>
       <c r="AW25" s="11">
-        <v>5197</v>
+        <v>4997</v>
       </c>
       <c r="AX25" s="11">
-        <v>5052</v>
+        <v>5226</v>
       </c>
       <c r="AY25" s="11">
-        <v>4997</v>
+        <v>5582</v>
       </c>
       <c r="AZ25" s="11">
-        <v>5226</v>
+        <v>4046</v>
       </c>
       <c r="BA25" s="11">
-        <v>5582</v>
+        <v>3419</v>
       </c>
       <c r="BB25" s="11">
-        <v>4046</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3135,94 +3135,94 @@
         <v>0</v>
       </c>
       <c r="Y26" s="13">
-        <v>0</v>
+        <v>6977</v>
       </c>
       <c r="Z26" s="13">
-        <v>0</v>
+        <v>6031</v>
       </c>
       <c r="AA26" s="13">
-        <v>6977</v>
+        <v>6331</v>
       </c>
       <c r="AB26" s="13">
-        <v>6031</v>
+        <v>6421</v>
       </c>
       <c r="AC26" s="13">
-        <v>6331</v>
+        <v>5224</v>
       </c>
       <c r="AD26" s="13">
-        <v>6421</v>
+        <v>5798</v>
       </c>
       <c r="AE26" s="13">
-        <v>5224</v>
+        <v>6294</v>
       </c>
       <c r="AF26" s="13">
-        <v>5798</v>
+        <v>5804</v>
       </c>
       <c r="AG26" s="13">
-        <v>6294</v>
+        <v>6550</v>
       </c>
       <c r="AH26" s="13">
-        <v>5804</v>
+        <v>4205</v>
       </c>
       <c r="AI26" s="13">
-        <v>6550</v>
+        <v>6761</v>
       </c>
       <c r="AJ26" s="13">
-        <v>4205</v>
+        <v>5594</v>
       </c>
       <c r="AK26" s="13">
-        <v>6761</v>
+        <v>5729</v>
       </c>
       <c r="AL26" s="13">
-        <v>5594</v>
+        <v>6272</v>
       </c>
       <c r="AM26" s="13">
-        <v>5729</v>
+        <v>6932</v>
       </c>
       <c r="AN26" s="13">
-        <v>6272</v>
+        <v>4751</v>
       </c>
       <c r="AO26" s="13">
-        <v>6932</v>
+        <v>5811</v>
       </c>
       <c r="AP26" s="13">
-        <v>4751</v>
+        <v>5109</v>
       </c>
       <c r="AQ26" s="13">
-        <v>5811</v>
+        <v>5323</v>
       </c>
       <c r="AR26" s="13">
-        <v>5109</v>
+        <v>4638</v>
       </c>
       <c r="AS26" s="13">
-        <v>5323</v>
+        <v>7819</v>
       </c>
       <c r="AT26" s="13">
-        <v>4638</v>
+        <v>5200</v>
       </c>
       <c r="AU26" s="13">
-        <v>7819</v>
+        <v>5197</v>
       </c>
       <c r="AV26" s="13">
-        <v>5200</v>
+        <v>5052</v>
       </c>
       <c r="AW26" s="13">
-        <v>5197</v>
+        <v>4997</v>
       </c>
       <c r="AX26" s="13">
-        <v>5052</v>
+        <v>5226</v>
       </c>
       <c r="AY26" s="13">
-        <v>4997</v>
+        <v>5582</v>
       </c>
       <c r="AZ26" s="13">
-        <v>5226</v>
+        <v>4046</v>
       </c>
       <c r="BA26" s="13">
-        <v>5582</v>
+        <v>3419</v>
       </c>
       <c r="BB26" s="13">
-        <v>4046</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3350,95 +3350,95 @@
       <c r="X28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>58</v>
+      <c r="Y28" s="11">
+        <v>230</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>178</v>
       </c>
       <c r="AA28" s="11">
+        <v>278</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>145</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>75</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>394</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>416</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>49</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>301</v>
+      </c>
+      <c r="AH28" s="11">
         <v>230</v>
       </c>
-      <c r="AB28" s="11">
-        <v>178</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>278</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>145</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>75</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>394</v>
-      </c>
-      <c r="AG28" s="11">
-        <v>416</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>49</v>
-      </c>
       <c r="AI28" s="11">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="AJ28" s="11">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="AK28" s="11">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="AL28" s="11">
-        <v>816</v>
+        <v>343</v>
       </c>
       <c r="AM28" s="11">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="AN28" s="11">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="AO28" s="11">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="AP28" s="11">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="AQ28" s="11">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="AR28" s="11">
-        <v>331</v>
+        <v>632</v>
       </c>
       <c r="AS28" s="11">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="AT28" s="11">
-        <v>632</v>
+        <v>309</v>
       </c>
       <c r="AU28" s="11">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="AV28" s="11">
-        <v>309</v>
+        <v>700</v>
       </c>
       <c r="AW28" s="11">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="AX28" s="11">
-        <v>700</v>
+        <v>1110</v>
       </c>
       <c r="AY28" s="11">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1110</v>
+        <v>1348</v>
       </c>
       <c r="BA28" s="11">
-        <v>553</v>
+        <v>2951</v>
       </c>
       <c r="BB28" s="11">
-        <v>1348</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3508,94 +3508,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Z29" s="13">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="AA29" s="13">
+        <v>278</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>145</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>75</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>394</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>416</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>49</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>301</v>
+      </c>
+      <c r="AH29" s="13">
         <v>230</v>
       </c>
-      <c r="AB29" s="13">
-        <v>178</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>278</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>145</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>75</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>394</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>416</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>49</v>
-      </c>
       <c r="AI29" s="13">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="AJ29" s="13">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="AK29" s="13">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="AL29" s="13">
-        <v>816</v>
+        <v>343</v>
       </c>
       <c r="AM29" s="13">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="AN29" s="13">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="AO29" s="13">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="AP29" s="13">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="AQ29" s="13">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="AR29" s="13">
-        <v>331</v>
+        <v>632</v>
       </c>
       <c r="AS29" s="13">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="AT29" s="13">
-        <v>632</v>
+        <v>309</v>
       </c>
       <c r="AU29" s="13">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="AV29" s="13">
-        <v>309</v>
+        <v>700</v>
       </c>
       <c r="AW29" s="13">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="AX29" s="13">
-        <v>700</v>
+        <v>1110</v>
       </c>
       <c r="AY29" s="13">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1110</v>
+        <v>1348</v>
       </c>
       <c r="BA29" s="13">
-        <v>553</v>
+        <v>2951</v>
       </c>
       <c r="BB29" s="13">
-        <v>1348</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3721,11 +3721,11 @@
       <c r="X31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="17" t="s">
-        <v>58</v>
+      <c r="Y31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>0</v>
       </c>
       <c r="AA31" s="17">
         <v>0</v>
@@ -3937,41 +3937,41 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>-20</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="11">
         <v>0</v>
       </c>
       <c r="AC33" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD33" s="11">
         <v>0</v>
       </c>
       <c r="AE33" s="11">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AG33" s="11">
         <v>0</v>
       </c>
       <c r="AH33" s="11">
-        <v>-14</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK33" s="11" t="s">
         <v>58</v>
@@ -3979,53 +3979,53 @@
       <c r="AL33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM33" s="11" t="s">
-        <v>58</v>
+      <c r="AM33" s="11">
+        <v>-22</v>
       </c>
       <c r="AN33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AO33" s="11">
-        <v>-22</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>58</v>
+        <v>-115</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>-178</v>
       </c>
       <c r="AQ33" s="11">
-        <v>-115</v>
+        <v>-46</v>
       </c>
       <c r="AR33" s="11">
-        <v>-178</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>-46</v>
-      </c>
-      <c r="AT33" s="11">
         <v>-98</v>
       </c>
+      <c r="AS33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW33" s="11" t="s">
-        <v>58</v>
+      <c r="AW33" s="11">
+        <v>-36</v>
       </c>
       <c r="AX33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY33" s="11">
-        <v>-36</v>
-      </c>
-      <c r="AZ33" s="11" t="s">
-        <v>58</v>
+        <v>-152</v>
+      </c>
+      <c r="AZ33" s="11">
+        <v>-29</v>
       </c>
       <c r="BA33" s="11">
-        <v>-152</v>
+        <v>-31</v>
       </c>
       <c r="BB33" s="11">
-        <v>-29</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4094,35 +4094,35 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>-20</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
         <v>0</v>
       </c>
       <c r="AC34" s="13">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD34" s="13">
         <v>0</v>
       </c>
       <c r="AE34" s="13">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="13">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AG34" s="13">
         <v>0</v>
       </c>
       <c r="AH34" s="13">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="13">
         <v>0</v>
@@ -4137,28 +4137,28 @@
         <v>0</v>
       </c>
       <c r="AM34" s="13">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AN34" s="13">
         <v>0</v>
       </c>
       <c r="AO34" s="13">
-        <v>-22</v>
+        <v>-115</v>
       </c>
       <c r="AP34" s="13">
-        <v>0</v>
+        <v>-178</v>
       </c>
       <c r="AQ34" s="13">
-        <v>-115</v>
+        <v>-46</v>
       </c>
       <c r="AR34" s="13">
-        <v>-178</v>
+        <v>-98</v>
       </c>
       <c r="AS34" s="13">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="13">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13">
         <v>0</v>
@@ -4167,22 +4167,22 @@
         <v>0</v>
       </c>
       <c r="AW34" s="13">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AX34" s="13">
         <v>0</v>
       </c>
       <c r="AY34" s="13">
-        <v>-36</v>
+        <v>-152</v>
       </c>
       <c r="AZ34" s="13">
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="BA34" s="13">
-        <v>-152</v>
+        <v>-31</v>
       </c>
       <c r="BB34" s="13">
-        <v>-29</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4252,94 +4252,94 @@
         <v>0</v>
       </c>
       <c r="Y35" s="17">
-        <v>0</v>
+        <v>7187</v>
       </c>
       <c r="Z35" s="17">
-        <v>0</v>
+        <v>6209</v>
       </c>
       <c r="AA35" s="17">
-        <v>7187</v>
+        <v>6609</v>
       </c>
       <c r="AB35" s="17">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AC35" s="17">
-        <v>6609</v>
+        <v>5267</v>
       </c>
       <c r="AD35" s="17">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AE35" s="17">
-        <v>5267</v>
+        <v>6710</v>
       </c>
       <c r="AF35" s="17">
-        <v>6192</v>
+        <v>5839</v>
       </c>
       <c r="AG35" s="17">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AH35" s="17">
-        <v>5839</v>
+        <v>4435</v>
       </c>
       <c r="AI35" s="17">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AJ35" s="17">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AK35" s="17">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AL35" s="17">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AM35" s="17">
-        <v>5950</v>
+        <v>7368</v>
       </c>
       <c r="AN35" s="17">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AO35" s="17">
-        <v>7368</v>
+        <v>6257</v>
       </c>
       <c r="AP35" s="17">
-        <v>5184</v>
+        <v>5262</v>
       </c>
       <c r="AQ35" s="17">
-        <v>6257</v>
+        <v>5566</v>
       </c>
       <c r="AR35" s="17">
-        <v>5262</v>
+        <v>5172</v>
       </c>
       <c r="AS35" s="17">
-        <v>5566</v>
+        <v>8214</v>
       </c>
       <c r="AT35" s="17">
-        <v>5172</v>
+        <v>5509</v>
       </c>
       <c r="AU35" s="17">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AV35" s="17">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AW35" s="17">
-        <v>5464</v>
+        <v>5560</v>
       </c>
       <c r="AX35" s="17">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AY35" s="17">
-        <v>5560</v>
+        <v>5983</v>
       </c>
       <c r="AZ35" s="17">
-        <v>6336</v>
+        <v>5365</v>
       </c>
       <c r="BA35" s="17">
-        <v>5983</v>
+        <v>6339</v>
       </c>
       <c r="BB35" s="17">
-        <v>5365</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4844,95 +4844,95 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>298383</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>272343</v>
       </c>
       <c r="AA42" s="11">
-        <v>298383</v>
+        <v>291425</v>
       </c>
       <c r="AB42" s="11">
-        <v>272343</v>
+        <v>306967</v>
       </c>
       <c r="AC42" s="11">
-        <v>291425</v>
+        <v>270572</v>
       </c>
       <c r="AD42" s="11">
-        <v>306967</v>
+        <v>318576</v>
       </c>
       <c r="AE42" s="11">
-        <v>270572</v>
+        <v>366936</v>
       </c>
       <c r="AF42" s="11">
-        <v>318576</v>
+        <v>354501</v>
       </c>
       <c r="AG42" s="11">
-        <v>366936</v>
+        <v>393711</v>
       </c>
       <c r="AH42" s="11">
-        <v>354501</v>
+        <v>265483</v>
       </c>
       <c r="AI42" s="11">
-        <v>393711</v>
+        <v>566814</v>
       </c>
       <c r="AJ42" s="11">
-        <v>265483</v>
+        <v>486548</v>
       </c>
       <c r="AK42" s="11">
-        <v>566814</v>
+        <v>478937</v>
       </c>
       <c r="AL42" s="11">
-        <v>486548</v>
+        <v>548114</v>
       </c>
       <c r="AM42" s="11">
-        <v>478937</v>
+        <v>608349</v>
       </c>
       <c r="AN42" s="11">
-        <v>548114</v>
+        <v>459663</v>
       </c>
       <c r="AO42" s="11">
-        <v>608349</v>
+        <v>591309</v>
       </c>
       <c r="AP42" s="11">
-        <v>459663</v>
+        <v>520563</v>
       </c>
       <c r="AQ42" s="11">
-        <v>591309</v>
+        <v>547437</v>
       </c>
       <c r="AR42" s="11">
-        <v>520563</v>
+        <v>478847</v>
       </c>
       <c r="AS42" s="11">
-        <v>547437</v>
+        <v>819282</v>
       </c>
       <c r="AT42" s="11">
-        <v>478847</v>
+        <v>535334</v>
       </c>
       <c r="AU42" s="11">
-        <v>819282</v>
+        <v>620594</v>
       </c>
       <c r="AV42" s="11">
-        <v>535334</v>
+        <v>658930</v>
       </c>
       <c r="AW42" s="11">
-        <v>620594</v>
+        <v>695370</v>
       </c>
       <c r="AX42" s="11">
-        <v>658930</v>
+        <v>717328</v>
       </c>
       <c r="AY42" s="11">
-        <v>695370</v>
+        <v>789737</v>
       </c>
       <c r="AZ42" s="11">
-        <v>717328</v>
+        <v>581460</v>
       </c>
       <c r="BA42" s="11">
-        <v>789737</v>
+        <v>486985</v>
       </c>
       <c r="BB42" s="11">
-        <v>581460</v>
+        <v>585547</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5002,94 +5002,94 @@
         <v>0</v>
       </c>
       <c r="Y43" s="13">
-        <v>0</v>
+        <v>298383</v>
       </c>
       <c r="Z43" s="13">
-        <v>0</v>
+        <v>272343</v>
       </c>
       <c r="AA43" s="13">
-        <v>298383</v>
+        <v>291425</v>
       </c>
       <c r="AB43" s="13">
-        <v>272343</v>
+        <v>306967</v>
       </c>
       <c r="AC43" s="13">
-        <v>291425</v>
+        <v>270572</v>
       </c>
       <c r="AD43" s="13">
-        <v>306967</v>
+        <v>318576</v>
       </c>
       <c r="AE43" s="13">
-        <v>270572</v>
+        <v>366936</v>
       </c>
       <c r="AF43" s="13">
-        <v>318576</v>
+        <v>354501</v>
       </c>
       <c r="AG43" s="13">
-        <v>366936</v>
+        <v>393711</v>
       </c>
       <c r="AH43" s="13">
-        <v>354501</v>
+        <v>265483</v>
       </c>
       <c r="AI43" s="13">
-        <v>393711</v>
+        <v>566814</v>
       </c>
       <c r="AJ43" s="13">
-        <v>265483</v>
+        <v>486548</v>
       </c>
       <c r="AK43" s="13">
-        <v>566814</v>
+        <v>478937</v>
       </c>
       <c r="AL43" s="13">
-        <v>486548</v>
+        <v>548114</v>
       </c>
       <c r="AM43" s="13">
-        <v>478937</v>
+        <v>608349</v>
       </c>
       <c r="AN43" s="13">
-        <v>548114</v>
+        <v>459663</v>
       </c>
       <c r="AO43" s="13">
-        <v>608349</v>
+        <v>591309</v>
       </c>
       <c r="AP43" s="13">
-        <v>459663</v>
+        <v>520563</v>
       </c>
       <c r="AQ43" s="13">
-        <v>591309</v>
+        <v>547437</v>
       </c>
       <c r="AR43" s="13">
-        <v>520563</v>
+        <v>478847</v>
       </c>
       <c r="AS43" s="13">
-        <v>547437</v>
+        <v>819282</v>
       </c>
       <c r="AT43" s="13">
-        <v>478847</v>
+        <v>535334</v>
       </c>
       <c r="AU43" s="13">
-        <v>819282</v>
+        <v>620594</v>
       </c>
       <c r="AV43" s="13">
-        <v>535334</v>
+        <v>658930</v>
       </c>
       <c r="AW43" s="13">
-        <v>620594</v>
+        <v>695370</v>
       </c>
       <c r="AX43" s="13">
-        <v>658930</v>
+        <v>717328</v>
       </c>
       <c r="AY43" s="13">
-        <v>695370</v>
+        <v>789737</v>
       </c>
       <c r="AZ43" s="13">
-        <v>717328</v>
+        <v>581460</v>
       </c>
       <c r="BA43" s="13">
-        <v>789737</v>
+        <v>486985</v>
       </c>
       <c r="BB43" s="13">
-        <v>581460</v>
+        <v>585547</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5217,95 +5217,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>10074</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>9062</v>
       </c>
       <c r="AA45" s="11">
-        <v>10074</v>
+        <v>14575</v>
       </c>
       <c r="AB45" s="11">
-        <v>9062</v>
+        <v>8662</v>
       </c>
       <c r="AC45" s="11">
-        <v>14575</v>
+        <v>4510</v>
       </c>
       <c r="AD45" s="11">
-        <v>8662</v>
+        <v>28365</v>
       </c>
       <c r="AE45" s="11">
-        <v>4510</v>
+        <v>22887</v>
       </c>
       <c r="AF45" s="11">
-        <v>28365</v>
+        <v>2658</v>
       </c>
       <c r="AG45" s="11">
-        <v>22887</v>
+        <v>16256</v>
       </c>
       <c r="AH45" s="11">
-        <v>2658</v>
+        <v>14932</v>
       </c>
       <c r="AI45" s="11">
-        <v>16256</v>
+        <v>6656</v>
       </c>
       <c r="AJ45" s="11">
-        <v>14932</v>
+        <v>45588</v>
       </c>
       <c r="AK45" s="11">
-        <v>6656</v>
+        <v>12627</v>
       </c>
       <c r="AL45" s="11">
-        <v>45588</v>
+        <v>23104</v>
       </c>
       <c r="AM45" s="11">
-        <v>12627</v>
+        <v>31685</v>
       </c>
       <c r="AN45" s="11">
-        <v>23104</v>
+        <v>26356</v>
       </c>
       <c r="AO45" s="11">
-        <v>31685</v>
+        <v>38493</v>
       </c>
       <c r="AP45" s="11">
-        <v>26356</v>
+        <v>25960</v>
       </c>
       <c r="AQ45" s="11">
-        <v>38493</v>
+        <v>21936</v>
       </c>
       <c r="AR45" s="11">
-        <v>25960</v>
+        <v>37834</v>
       </c>
       <c r="AS45" s="11">
-        <v>21936</v>
+        <v>23544</v>
       </c>
       <c r="AT45" s="11">
-        <v>37834</v>
+        <v>19568</v>
       </c>
       <c r="AU45" s="11">
-        <v>23544</v>
+        <v>16944</v>
       </c>
       <c r="AV45" s="11">
-        <v>19568</v>
+        <v>52101</v>
       </c>
       <c r="AW45" s="11">
-        <v>16944</v>
+        <v>45620</v>
       </c>
       <c r="AX45" s="11">
-        <v>52101</v>
+        <v>83775</v>
       </c>
       <c r="AY45" s="11">
-        <v>45620</v>
+        <v>45274</v>
       </c>
       <c r="AZ45" s="11">
-        <v>83775</v>
+        <v>118477</v>
       </c>
       <c r="BA45" s="11">
-        <v>45274</v>
+        <v>263587</v>
       </c>
       <c r="BB45" s="11">
-        <v>118477</v>
+        <v>183437</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5375,94 +5375,94 @@
         <v>0</v>
       </c>
       <c r="Y46" s="13">
-        <v>0</v>
+        <v>10074</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>9062</v>
       </c>
       <c r="AA46" s="13">
-        <v>10074</v>
+        <v>14575</v>
       </c>
       <c r="AB46" s="13">
-        <v>9062</v>
+        <v>8662</v>
       </c>
       <c r="AC46" s="13">
-        <v>14575</v>
+        <v>4510</v>
       </c>
       <c r="AD46" s="13">
-        <v>8662</v>
+        <v>28365</v>
       </c>
       <c r="AE46" s="13">
-        <v>4510</v>
+        <v>22887</v>
       </c>
       <c r="AF46" s="13">
-        <v>28365</v>
+        <v>2658</v>
       </c>
       <c r="AG46" s="13">
-        <v>22887</v>
+        <v>16256</v>
       </c>
       <c r="AH46" s="13">
-        <v>2658</v>
+        <v>14932</v>
       </c>
       <c r="AI46" s="13">
-        <v>16256</v>
+        <v>6656</v>
       </c>
       <c r="AJ46" s="13">
-        <v>14932</v>
+        <v>45588</v>
       </c>
       <c r="AK46" s="13">
-        <v>6656</v>
+        <v>12627</v>
       </c>
       <c r="AL46" s="13">
-        <v>45588</v>
+        <v>23104</v>
       </c>
       <c r="AM46" s="13">
-        <v>12627</v>
+        <v>31685</v>
       </c>
       <c r="AN46" s="13">
-        <v>23104</v>
+        <v>26356</v>
       </c>
       <c r="AO46" s="13">
-        <v>31685</v>
+        <v>38493</v>
       </c>
       <c r="AP46" s="13">
-        <v>26356</v>
+        <v>25960</v>
       </c>
       <c r="AQ46" s="13">
-        <v>38493</v>
+        <v>21936</v>
       </c>
       <c r="AR46" s="13">
-        <v>25960</v>
+        <v>37834</v>
       </c>
       <c r="AS46" s="13">
-        <v>21936</v>
+        <v>23544</v>
       </c>
       <c r="AT46" s="13">
-        <v>37834</v>
+        <v>19568</v>
       </c>
       <c r="AU46" s="13">
-        <v>23544</v>
+        <v>16944</v>
       </c>
       <c r="AV46" s="13">
-        <v>19568</v>
+        <v>52101</v>
       </c>
       <c r="AW46" s="13">
-        <v>16944</v>
+        <v>45620</v>
       </c>
       <c r="AX46" s="13">
-        <v>52101</v>
+        <v>83775</v>
       </c>
       <c r="AY46" s="13">
-        <v>45620</v>
+        <v>45274</v>
       </c>
       <c r="AZ46" s="13">
-        <v>83775</v>
+        <v>118477</v>
       </c>
       <c r="BA46" s="13">
-        <v>45274</v>
+        <v>263587</v>
       </c>
       <c r="BB46" s="13">
-        <v>118477</v>
+        <v>183437</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5590,11 +5590,11 @@
       <c r="X48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z48" s="17" t="s">
-        <v>58</v>
+      <c r="Y48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="17">
+        <v>0</v>
       </c>
       <c r="AA48" s="17">
         <v>0</v>
@@ -5806,35 +5806,35 @@
       <c r="X50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z50" s="11" t="s">
-        <v>58</v>
+      <c r="Y50" s="11">
+        <v>-790</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="11">
         <v>0</v>
       </c>
       <c r="AC50" s="11">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AD50" s="11">
         <v>0</v>
       </c>
       <c r="AE50" s="11">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AG50" s="11">
         <v>0</v>
       </c>
       <c r="AH50" s="11">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="11">
         <v>0</v>
@@ -5849,28 +5849,28 @@
         <v>0</v>
       </c>
       <c r="AM50" s="11">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AN50" s="11">
         <v>0</v>
       </c>
       <c r="AO50" s="11">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AP50" s="11">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AQ50" s="11">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AR50" s="11">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AS50" s="11">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="11">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="11">
         <v>0</v>
@@ -5879,22 +5879,22 @@
         <v>0</v>
       </c>
       <c r="AW50" s="11">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AX50" s="11">
         <v>0</v>
       </c>
       <c r="AY50" s="11">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AZ50" s="11">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="BA50" s="11">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="BB50" s="11">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -5965,35 +5965,35 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>-790</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>0</v>
       </c>
       <c r="AA51" s="13">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="13">
         <v>0</v>
       </c>
       <c r="AC51" s="13">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AD51" s="13">
         <v>0</v>
       </c>
       <c r="AE51" s="13">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="13">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AG51" s="13">
         <v>0</v>
       </c>
       <c r="AH51" s="13">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="13">
         <v>0</v>
@@ -6008,28 +6008,28 @@
         <v>0</v>
       </c>
       <c r="AM51" s="13">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AN51" s="13">
         <v>0</v>
       </c>
       <c r="AO51" s="13">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AP51" s="13">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AQ51" s="13">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AR51" s="13">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AS51" s="13">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="13">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="13">
         <v>0</v>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="AW51" s="13">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AX51" s="13">
         <v>0</v>
       </c>
       <c r="AY51" s="13">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AZ51" s="13">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="BA51" s="13">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="BB51" s="13">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6181,95 +6181,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>-191</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>-144</v>
       </c>
       <c r="AA53" s="11">
-        <v>-191</v>
+        <v>-151</v>
       </c>
       <c r="AB53" s="11">
+        <v>-97</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>-61</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>-74</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>-54</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>-25</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>-38</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>-121</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AQ53" s="11">
+        <v>-163</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>-99</v>
+      </c>
+      <c r="AS53" s="11">
         <v>-144</v>
       </c>
-      <c r="AC53" s="11">
-        <v>-151</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>-97</v>
-      </c>
-      <c r="AE53" s="11">
+      <c r="AT53" s="11">
+        <v>-270</v>
+      </c>
+      <c r="AU53" s="11">
         <v>-19</v>
       </c>
-      <c r="AF53" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>-61</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>-74</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>-54</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>-38</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AO53" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AP53" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>-121</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AS53" s="11">
-        <v>-163</v>
-      </c>
-      <c r="AT53" s="11">
-        <v>-99</v>
-      </c>
-      <c r="AU53" s="11">
-        <v>-144</v>
-      </c>
       <c r="AV53" s="11">
-        <v>-270</v>
+        <v>-135</v>
       </c>
       <c r="AW53" s="11">
-        <v>-19</v>
+        <v>-37</v>
       </c>
       <c r="AX53" s="11">
-        <v>-135</v>
+        <v>-397</v>
       </c>
       <c r="AY53" s="11">
-        <v>-37</v>
+        <v>-8349</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-397</v>
+        <v>-9695</v>
       </c>
       <c r="BA53" s="11">
-        <v>-8349</v>
+        <v>-16312</v>
       </c>
       <c r="BB53" s="11">
-        <v>-9695</v>
+        <v>-24729</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6339,94 +6339,94 @@
         <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>307476</v>
       </c>
       <c r="Z54" s="13">
-        <v>0</v>
+        <v>281261</v>
       </c>
       <c r="AA54" s="13">
-        <v>307476</v>
+        <v>305849</v>
       </c>
       <c r="AB54" s="13">
-        <v>281261</v>
+        <v>315532</v>
       </c>
       <c r="AC54" s="13">
-        <v>305849</v>
+        <v>273511</v>
       </c>
       <c r="AD54" s="13">
-        <v>315532</v>
+        <v>346902</v>
       </c>
       <c r="AE54" s="13">
-        <v>273511</v>
+        <v>389762</v>
       </c>
       <c r="AF54" s="13">
-        <v>346902</v>
+        <v>356174</v>
       </c>
       <c r="AG54" s="13">
-        <v>389762</v>
+        <v>409893</v>
       </c>
       <c r="AH54" s="13">
-        <v>356174</v>
+        <v>280376</v>
       </c>
       <c r="AI54" s="13">
-        <v>409893</v>
+        <v>573416</v>
       </c>
       <c r="AJ54" s="13">
-        <v>280376</v>
+        <v>532111</v>
       </c>
       <c r="AK54" s="13">
-        <v>573416</v>
+        <v>491526</v>
       </c>
       <c r="AL54" s="13">
-        <v>532111</v>
+        <v>571145</v>
       </c>
       <c r="AM54" s="13">
-        <v>491526</v>
+        <v>638004</v>
       </c>
       <c r="AN54" s="13">
-        <v>571145</v>
+        <v>485976</v>
       </c>
       <c r="AO54" s="13">
-        <v>638004</v>
+        <v>619927</v>
       </c>
       <c r="AP54" s="13">
-        <v>485976</v>
+        <v>531468</v>
       </c>
       <c r="AQ54" s="13">
-        <v>619927</v>
+        <v>565573</v>
       </c>
       <c r="AR54" s="13">
-        <v>531468</v>
+        <v>507922</v>
       </c>
       <c r="AS54" s="13">
-        <v>565573</v>
+        <v>842682</v>
       </c>
       <c r="AT54" s="13">
-        <v>507922</v>
+        <v>554632</v>
       </c>
       <c r="AU54" s="13">
-        <v>842682</v>
+        <v>637519</v>
       </c>
       <c r="AV54" s="13">
-        <v>554632</v>
+        <v>710896</v>
       </c>
       <c r="AW54" s="13">
-        <v>637519</v>
+        <v>736494</v>
       </c>
       <c r="AX54" s="13">
-        <v>710896</v>
+        <v>800706</v>
       </c>
       <c r="AY54" s="13">
-        <v>736494</v>
+        <v>805687</v>
       </c>
       <c r="AZ54" s="13">
-        <v>800706</v>
+        <v>686155</v>
       </c>
       <c r="BA54" s="13">
-        <v>805687</v>
+        <v>729422</v>
       </c>
       <c r="BB54" s="13">
-        <v>686155</v>
+        <v>697286</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6931,95 +6931,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>42766662</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>45157188</v>
       </c>
       <c r="AA61" s="11">
-        <v>42766662</v>
+        <v>46031433</v>
       </c>
       <c r="AB61" s="11">
-        <v>45157188</v>
+        <v>47806728</v>
       </c>
       <c r="AC61" s="11">
-        <v>46031433</v>
+        <v>51794028</v>
       </c>
       <c r="AD61" s="11">
-        <v>47806728</v>
+        <v>54945843</v>
       </c>
       <c r="AE61" s="11">
-        <v>51794028</v>
+        <v>58299333</v>
       </c>
       <c r="AF61" s="11">
-        <v>54945843</v>
+        <v>61078739</v>
       </c>
       <c r="AG61" s="11">
-        <v>58299333</v>
+        <v>60108550</v>
       </c>
       <c r="AH61" s="11">
-        <v>61078739</v>
+        <v>63135077</v>
       </c>
       <c r="AI61" s="11">
-        <v>60108550</v>
+        <v>83835823</v>
       </c>
       <c r="AJ61" s="11">
-        <v>63135077</v>
+        <v>86976761</v>
       </c>
       <c r="AK61" s="11">
-        <v>83835823</v>
+        <v>83598708</v>
       </c>
       <c r="AL61" s="11">
-        <v>86976761</v>
+        <v>87390625</v>
       </c>
       <c r="AM61" s="11">
-        <v>83598708</v>
+        <v>87759521</v>
       </c>
       <c r="AN61" s="11">
-        <v>87390625</v>
+        <v>96750789</v>
       </c>
       <c r="AO61" s="11">
-        <v>87759521</v>
+        <v>101756840</v>
       </c>
       <c r="AP61" s="11">
-        <v>96750789</v>
+        <v>101891368</v>
       </c>
       <c r="AQ61" s="11">
-        <v>101756840</v>
+        <v>102843697</v>
       </c>
       <c r="AR61" s="11">
-        <v>101891368</v>
+        <v>103244286</v>
       </c>
       <c r="AS61" s="11">
-        <v>102843697</v>
+        <v>104780918</v>
       </c>
       <c r="AT61" s="11">
-        <v>103244286</v>
+        <v>102948846</v>
       </c>
       <c r="AU61" s="11">
-        <v>104780918</v>
+        <v>119413893</v>
       </c>
       <c r="AV61" s="11">
-        <v>102948846</v>
+        <v>130429533</v>
       </c>
       <c r="AW61" s="11">
-        <v>119413893</v>
+        <v>139157495</v>
       </c>
       <c r="AX61" s="11">
-        <v>130429533</v>
+        <v>137261385</v>
       </c>
       <c r="AY61" s="11">
-        <v>139157495</v>
+        <v>141479219</v>
       </c>
       <c r="AZ61" s="11">
-        <v>137261385</v>
+        <v>143712308</v>
       </c>
       <c r="BA61" s="11">
-        <v>141479219</v>
+        <v>142434922</v>
       </c>
       <c r="BB61" s="11">
-        <v>143712308</v>
+        <v>142990720</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7147,95 +7147,95 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>43800000</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>50910112</v>
       </c>
       <c r="AA63" s="11">
-        <v>43800000</v>
+        <v>52428058</v>
       </c>
       <c r="AB63" s="11">
-        <v>50910112</v>
+        <v>59737931</v>
       </c>
       <c r="AC63" s="11">
-        <v>52428058</v>
+        <v>60133333</v>
       </c>
       <c r="AD63" s="11">
-        <v>59737931</v>
+        <v>71992386</v>
       </c>
       <c r="AE63" s="11">
-        <v>60133333</v>
+        <v>55016827</v>
       </c>
       <c r="AF63" s="11">
-        <v>71992386</v>
+        <v>54244898</v>
       </c>
       <c r="AG63" s="11">
-        <v>55016827</v>
+        <v>54006645</v>
       </c>
       <c r="AH63" s="11">
-        <v>54244898</v>
+        <v>64921739</v>
       </c>
       <c r="AI63" s="11">
-        <v>54006645</v>
+        <v>53677419</v>
       </c>
       <c r="AJ63" s="11">
-        <v>64921739</v>
+        <v>55867647</v>
       </c>
       <c r="AK63" s="11">
-        <v>53677419</v>
+        <v>57135747</v>
       </c>
       <c r="AL63" s="11">
-        <v>55867647</v>
+        <v>67358601</v>
       </c>
       <c r="AM63" s="11">
-        <v>57135747</v>
+        <v>69181223</v>
       </c>
       <c r="AN63" s="11">
-        <v>67358601</v>
+        <v>60868360</v>
       </c>
       <c r="AO63" s="11">
-        <v>69181223</v>
+        <v>68614973</v>
       </c>
       <c r="AP63" s="11">
-        <v>60868360</v>
+        <v>78429003</v>
       </c>
       <c r="AQ63" s="11">
-        <v>68614973</v>
+        <v>75903114</v>
       </c>
       <c r="AR63" s="11">
-        <v>78429003</v>
+        <v>59863924</v>
       </c>
       <c r="AS63" s="11">
-        <v>75903114</v>
+        <v>59605063</v>
       </c>
       <c r="AT63" s="11">
-        <v>59863924</v>
+        <v>63326861</v>
       </c>
       <c r="AU63" s="11">
-        <v>59605063</v>
+        <v>63460674</v>
       </c>
       <c r="AV63" s="11">
-        <v>63326861</v>
+        <v>74430000</v>
       </c>
       <c r="AW63" s="11">
-        <v>63460674</v>
+        <v>76160267</v>
       </c>
       <c r="AX63" s="11">
-        <v>74430000</v>
+        <v>75472973</v>
       </c>
       <c r="AY63" s="11">
-        <v>76160267</v>
+        <v>81869801</v>
       </c>
       <c r="AZ63" s="11">
-        <v>75472973</v>
+        <v>87890950</v>
       </c>
       <c r="BA63" s="11">
-        <v>81869801</v>
+        <v>89321247</v>
       </c>
       <c r="BB63" s="11">
-        <v>87890950</v>
+        <v>103930312</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E55353-9BFD-4FE0-9BBB-E390A63C1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC8B62-D3CC-4030-91CA-82CFAA4D78CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 5 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 6 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 7 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -748,12 +748,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -808,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -977,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1477,104 +1477,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>5802</v>
+      </c>
+      <c r="X11" s="11">
+        <v>5647</v>
       </c>
       <c r="Y11" s="11">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="Z11" s="11">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AA11" s="11">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AB11" s="11">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AC11" s="11">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AD11" s="11">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AE11" s="11">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AF11" s="11">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AG11" s="11">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AH11" s="11">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AI11" s="11">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AJ11" s="11">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AK11" s="11">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AL11" s="11">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AM11" s="11">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AN11" s="11">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AO11" s="11">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AP11" s="11">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AQ11" s="11">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AR11" s="11">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AS11" s="11">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AT11" s="11">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AU11" s="11">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AV11" s="11">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AW11" s="11">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AX11" s="11">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="AY11" s="11">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="AZ11" s="11">
-        <v>8972</v>
+        <v>8906</v>
       </c>
       <c r="BA11" s="11">
-        <v>8924</v>
+        <v>9451</v>
       </c>
       <c r="BB11" s="11">
-        <v>8906</v>
+        <v>9866</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1635,103 +1635,103 @@
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="Y12" s="13">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="Z12" s="13">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AA12" s="13">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AB12" s="13">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AC12" s="13">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AD12" s="13">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AE12" s="13">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AF12" s="13">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AG12" s="13">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AH12" s="13">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AI12" s="13">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AJ12" s="13">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AK12" s="13">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AL12" s="13">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AM12" s="13">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AN12" s="13">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AO12" s="13">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AP12" s="13">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AQ12" s="13">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AR12" s="13">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AS12" s="13">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AT12" s="13">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AU12" s="13">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AV12" s="13">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AW12" s="13">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AX12" s="13">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="AY12" s="13">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="AZ12" s="13">
-        <v>8972</v>
+        <v>8906</v>
       </c>
       <c r="BA12" s="13">
-        <v>8924</v>
+        <v>9451</v>
       </c>
       <c r="BB12" s="13">
-        <v>8906</v>
+        <v>9866</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1850,11 +1850,11 @@
       <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>58</v>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -1880,23 +1880,23 @@
       <c r="AF14" s="11">
         <v>0</v>
       </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>0</v>
+      <c r="AG14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ14" s="11" t="s">
-        <v>58</v>
+      <c r="AJ14" s="11">
+        <v>0</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL14" s="11">
-        <v>0</v>
+      <c r="AL14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM14" s="11" t="s">
         <v>58</v>
@@ -1913,11 +1913,11 @@
       <c r="AQ14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="11" t="s">
-        <v>58</v>
+      <c r="AR14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="11">
+        <v>0</v>
       </c>
       <c r="AT14" s="11">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="V17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>58</v>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
       </c>
       <c r="Y17" s="17">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2379,103 +2379,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>5647</v>
       </c>
       <c r="Y18" s="13">
-        <v>5802</v>
+        <v>6003</v>
       </c>
       <c r="Z18" s="13">
-        <v>5647</v>
+        <v>5610</v>
       </c>
       <c r="AA18" s="13">
-        <v>6003</v>
+        <v>5307</v>
       </c>
       <c r="AB18" s="13">
-        <v>5610</v>
+        <v>5804</v>
       </c>
       <c r="AC18" s="13">
-        <v>5307</v>
+        <v>6180</v>
       </c>
       <c r="AD18" s="13">
-        <v>5804</v>
+        <v>6152</v>
       </c>
       <c r="AE18" s="13">
-        <v>6180</v>
+        <v>6455</v>
       </c>
       <c r="AF18" s="13">
-        <v>6152</v>
+        <v>6708</v>
       </c>
       <c r="AG18" s="13">
-        <v>6455</v>
+        <v>6433</v>
       </c>
       <c r="AH18" s="13">
-        <v>6708</v>
+        <v>6495</v>
       </c>
       <c r="AI18" s="13">
-        <v>6433</v>
+        <v>6340</v>
       </c>
       <c r="AJ18" s="13">
-        <v>6495</v>
+        <v>6507</v>
       </c>
       <c r="AK18" s="13">
-        <v>6340</v>
+        <v>6445</v>
       </c>
       <c r="AL18" s="13">
-        <v>6507</v>
+        <v>6225</v>
       </c>
       <c r="AM18" s="13">
-        <v>6445</v>
+        <v>6345</v>
       </c>
       <c r="AN18" s="13">
-        <v>6225</v>
+        <v>6033</v>
       </c>
       <c r="AO18" s="13">
-        <v>6345</v>
+        <v>5866</v>
       </c>
       <c r="AP18" s="13">
-        <v>6033</v>
+        <v>6466</v>
       </c>
       <c r="AQ18" s="13">
-        <v>5866</v>
+        <v>6368</v>
       </c>
       <c r="AR18" s="13">
-        <v>6466</v>
+        <v>9629</v>
       </c>
       <c r="AS18" s="13">
-        <v>6368</v>
+        <v>9438</v>
       </c>
       <c r="AT18" s="13">
-        <v>9629</v>
+        <v>7693</v>
       </c>
       <c r="AU18" s="13">
-        <v>9438</v>
+        <v>7215</v>
       </c>
       <c r="AV18" s="13">
-        <v>7693</v>
+        <v>6594</v>
       </c>
       <c r="AW18" s="13">
-        <v>7215</v>
+        <v>7795</v>
       </c>
       <c r="AX18" s="13">
-        <v>6594</v>
+        <v>8972</v>
       </c>
       <c r="AY18" s="13">
-        <v>7795</v>
+        <v>8924</v>
       </c>
       <c r="AZ18" s="13">
-        <v>8972</v>
+        <v>8906</v>
       </c>
       <c r="BA18" s="13">
-        <v>8924</v>
+        <v>9451</v>
       </c>
       <c r="BB18" s="13">
-        <v>8906</v>
+        <v>9866</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2530,7 +2530,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2640,7 +2640,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -2971,104 +2971,104 @@
       <c r="V25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>58</v>
+      <c r="W25" s="11">
+        <v>6977</v>
+      </c>
+      <c r="X25" s="11">
+        <v>6031</v>
       </c>
       <c r="Y25" s="11">
-        <v>6977</v>
+        <v>6331</v>
       </c>
       <c r="Z25" s="11">
-        <v>6031</v>
+        <v>6421</v>
       </c>
       <c r="AA25" s="11">
-        <v>6331</v>
+        <v>5224</v>
       </c>
       <c r="AB25" s="11">
-        <v>6421</v>
+        <v>5798</v>
       </c>
       <c r="AC25" s="11">
-        <v>5224</v>
+        <v>6294</v>
       </c>
       <c r="AD25" s="11">
-        <v>5798</v>
+        <v>5804</v>
       </c>
       <c r="AE25" s="11">
-        <v>6294</v>
+        <v>6550</v>
       </c>
       <c r="AF25" s="11">
-        <v>5804</v>
+        <v>4205</v>
       </c>
       <c r="AG25" s="11">
-        <v>6550</v>
+        <v>6761</v>
       </c>
       <c r="AH25" s="11">
-        <v>4205</v>
+        <v>5594</v>
       </c>
       <c r="AI25" s="11">
-        <v>6761</v>
+        <v>5729</v>
       </c>
       <c r="AJ25" s="11">
-        <v>5594</v>
+        <v>6272</v>
       </c>
       <c r="AK25" s="11">
-        <v>5729</v>
+        <v>6932</v>
       </c>
       <c r="AL25" s="11">
-        <v>6272</v>
+        <v>4751</v>
       </c>
       <c r="AM25" s="11">
-        <v>6932</v>
+        <v>5811</v>
       </c>
       <c r="AN25" s="11">
-        <v>4751</v>
+        <v>5109</v>
       </c>
       <c r="AO25" s="11">
-        <v>5811</v>
+        <v>5323</v>
       </c>
       <c r="AP25" s="11">
-        <v>5109</v>
+        <v>4638</v>
       </c>
       <c r="AQ25" s="11">
-        <v>5323</v>
+        <v>7819</v>
       </c>
       <c r="AR25" s="11">
-        <v>4638</v>
+        <v>5200</v>
       </c>
       <c r="AS25" s="11">
-        <v>7819</v>
+        <v>5197</v>
       </c>
       <c r="AT25" s="11">
-        <v>5200</v>
+        <v>5052</v>
       </c>
       <c r="AU25" s="11">
-        <v>5197</v>
+        <v>4997</v>
       </c>
       <c r="AV25" s="11">
-        <v>5052</v>
+        <v>5226</v>
       </c>
       <c r="AW25" s="11">
-        <v>4997</v>
+        <v>5582</v>
       </c>
       <c r="AX25" s="11">
-        <v>5226</v>
+        <v>4046</v>
       </c>
       <c r="AY25" s="11">
-        <v>5582</v>
+        <v>3419</v>
       </c>
       <c r="AZ25" s="11">
-        <v>4046</v>
+        <v>4095</v>
       </c>
       <c r="BA25" s="11">
-        <v>3419</v>
+        <v>4942</v>
       </c>
       <c r="BB25" s="11">
-        <v>4095</v>
+        <v>10315</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3129,103 +3129,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="13">
-        <v>0</v>
+        <v>6977</v>
       </c>
       <c r="X26" s="13">
-        <v>0</v>
+        <v>6031</v>
       </c>
       <c r="Y26" s="13">
-        <v>6977</v>
+        <v>6331</v>
       </c>
       <c r="Z26" s="13">
-        <v>6031</v>
+        <v>6421</v>
       </c>
       <c r="AA26" s="13">
-        <v>6331</v>
+        <v>5224</v>
       </c>
       <c r="AB26" s="13">
-        <v>6421</v>
+        <v>5798</v>
       </c>
       <c r="AC26" s="13">
-        <v>5224</v>
+        <v>6294</v>
       </c>
       <c r="AD26" s="13">
-        <v>5798</v>
+        <v>5804</v>
       </c>
       <c r="AE26" s="13">
-        <v>6294</v>
+        <v>6550</v>
       </c>
       <c r="AF26" s="13">
-        <v>5804</v>
+        <v>4205</v>
       </c>
       <c r="AG26" s="13">
-        <v>6550</v>
+        <v>6761</v>
       </c>
       <c r="AH26" s="13">
-        <v>4205</v>
+        <v>5594</v>
       </c>
       <c r="AI26" s="13">
-        <v>6761</v>
+        <v>5729</v>
       </c>
       <c r="AJ26" s="13">
-        <v>5594</v>
+        <v>6272</v>
       </c>
       <c r="AK26" s="13">
-        <v>5729</v>
+        <v>6932</v>
       </c>
       <c r="AL26" s="13">
-        <v>6272</v>
+        <v>4751</v>
       </c>
       <c r="AM26" s="13">
-        <v>6932</v>
+        <v>5811</v>
       </c>
       <c r="AN26" s="13">
-        <v>4751</v>
+        <v>5109</v>
       </c>
       <c r="AO26" s="13">
-        <v>5811</v>
+        <v>5323</v>
       </c>
       <c r="AP26" s="13">
-        <v>5109</v>
+        <v>4638</v>
       </c>
       <c r="AQ26" s="13">
-        <v>5323</v>
+        <v>7819</v>
       </c>
       <c r="AR26" s="13">
-        <v>4638</v>
+        <v>5200</v>
       </c>
       <c r="AS26" s="13">
-        <v>7819</v>
+        <v>5197</v>
       </c>
       <c r="AT26" s="13">
-        <v>5200</v>
+        <v>5052</v>
       </c>
       <c r="AU26" s="13">
-        <v>5197</v>
+        <v>4997</v>
       </c>
       <c r="AV26" s="13">
-        <v>5052</v>
+        <v>5226</v>
       </c>
       <c r="AW26" s="13">
-        <v>4997</v>
+        <v>5582</v>
       </c>
       <c r="AX26" s="13">
-        <v>5226</v>
+        <v>4046</v>
       </c>
       <c r="AY26" s="13">
-        <v>5582</v>
+        <v>3419</v>
       </c>
       <c r="AZ26" s="13">
-        <v>4046</v>
+        <v>4095</v>
       </c>
       <c r="BA26" s="13">
-        <v>3419</v>
+        <v>4942</v>
       </c>
       <c r="BB26" s="13">
-        <v>4095</v>
+        <v>10315</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3344,104 +3344,104 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>230</v>
+      </c>
+      <c r="X28" s="11">
+        <v>178</v>
       </c>
       <c r="Y28" s="11">
+        <v>278</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>145</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>75</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>394</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>416</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>301</v>
+      </c>
+      <c r="AF28" s="11">
         <v>230</v>
       </c>
-      <c r="Z28" s="11">
-        <v>178</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>278</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>145</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>75</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>394</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>416</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>49</v>
-      </c>
       <c r="AG28" s="11">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="AH28" s="11">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="AI28" s="11">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="AJ28" s="11">
-        <v>816</v>
+        <v>343</v>
       </c>
       <c r="AK28" s="11">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="AL28" s="11">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="AM28" s="11">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="AN28" s="11">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="AO28" s="11">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="AP28" s="11">
-        <v>331</v>
+        <v>632</v>
       </c>
       <c r="AQ28" s="11">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="AR28" s="11">
-        <v>632</v>
+        <v>309</v>
       </c>
       <c r="AS28" s="11">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="AT28" s="11">
-        <v>309</v>
+        <v>700</v>
       </c>
       <c r="AU28" s="11">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="AV28" s="11">
-        <v>700</v>
+        <v>1110</v>
       </c>
       <c r="AW28" s="11">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="AX28" s="11">
-        <v>1110</v>
+        <v>1348</v>
       </c>
       <c r="AY28" s="11">
-        <v>553</v>
+        <v>2951</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1348</v>
+        <v>1765</v>
       </c>
       <c r="BA28" s="11">
-        <v>2951</v>
+        <v>360</v>
       </c>
       <c r="BB28" s="11">
-        <v>1765</v>
+        <v>1262</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3502,103 +3502,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="X29" s="13">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="Y29" s="13">
+        <v>278</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>145</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>75</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>394</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>416</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>49</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>301</v>
+      </c>
+      <c r="AF29" s="13">
         <v>230</v>
       </c>
-      <c r="Z29" s="13">
-        <v>178</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>278</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>145</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>75</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>394</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>416</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>49</v>
-      </c>
       <c r="AG29" s="13">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="AH29" s="13">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="AI29" s="13">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="AJ29" s="13">
-        <v>816</v>
+        <v>343</v>
       </c>
       <c r="AK29" s="13">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="AL29" s="13">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="AM29" s="13">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="AN29" s="13">
-        <v>433</v>
+        <v>331</v>
       </c>
       <c r="AO29" s="13">
-        <v>561</v>
+        <v>289</v>
       </c>
       <c r="AP29" s="13">
-        <v>331</v>
+        <v>632</v>
       </c>
       <c r="AQ29" s="13">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="AR29" s="13">
-        <v>632</v>
+        <v>309</v>
       </c>
       <c r="AS29" s="13">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="AT29" s="13">
-        <v>309</v>
+        <v>700</v>
       </c>
       <c r="AU29" s="13">
-        <v>267</v>
+        <v>599</v>
       </c>
       <c r="AV29" s="13">
-        <v>700</v>
+        <v>1110</v>
       </c>
       <c r="AW29" s="13">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="AX29" s="13">
-        <v>1110</v>
+        <v>1348</v>
       </c>
       <c r="AY29" s="13">
-        <v>553</v>
+        <v>2951</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1348</v>
+        <v>1765</v>
       </c>
       <c r="BA29" s="13">
-        <v>2951</v>
+        <v>360</v>
       </c>
       <c r="BB29" s="13">
-        <v>1765</v>
+        <v>1262</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -3715,11 +3715,11 @@
       <c r="V31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>58</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -3931,41 +3931,41 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>-20</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
       </c>
       <c r="Y33" s="11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="11">
         <v>0</v>
       </c>
       <c r="AA33" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AB33" s="11">
         <v>0</v>
       </c>
       <c r="AC33" s="11">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AE33" s="11">
         <v>0</v>
       </c>
       <c r="AF33" s="11">
-        <v>-14</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="11" t="s">
         <v>58</v>
@@ -3973,62 +3973,62 @@
       <c r="AJ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AK33" s="11">
+        <v>-22</v>
       </c>
       <c r="AL33" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM33" s="11">
+        <v>-115</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>-178</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>-46</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>-98</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>-36</v>
+      </c>
+      <c r="AV33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>-152</v>
+      </c>
+      <c r="AX33" s="11">
+        <v>-29</v>
+      </c>
+      <c r="AY33" s="11">
+        <v>-31</v>
+      </c>
+      <c r="AZ33" s="11">
+        <v>-314</v>
+      </c>
+      <c r="BA33" s="11">
+        <v>-53</v>
+      </c>
+      <c r="BB33" s="11">
         <v>-22</v>
       </c>
-      <c r="AN33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>-115</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>-178</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>-46</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>-98</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW33" s="11">
-        <v>-36</v>
-      </c>
-      <c r="AX33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY33" s="11">
-        <v>-152</v>
-      </c>
-      <c r="AZ33" s="11">
-        <v>-29</v>
-      </c>
-      <c r="BA33" s="11">
-        <v>-31</v>
-      </c>
-      <c r="BB33" s="11">
-        <v>-314</v>
-      </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
@@ -4088,35 +4088,35 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>-20</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
       </c>
       <c r="Y34" s="13">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="13">
         <v>0</v>
       </c>
       <c r="AA34" s="13">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AB34" s="13">
         <v>0</v>
       </c>
       <c r="AC34" s="13">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="13">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AE34" s="13">
         <v>0</v>
       </c>
       <c r="AF34" s="13">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="13">
         <v>0</v>
@@ -4131,61 +4131,61 @@
         <v>0</v>
       </c>
       <c r="AK34" s="13">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AL34" s="13">
         <v>0</v>
       </c>
       <c r="AM34" s="13">
+        <v>-115</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>-178</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>-46</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>-98</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>-36</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>-152</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>-29</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>-31</v>
+      </c>
+      <c r="AZ34" s="13">
+        <v>-314</v>
+      </c>
+      <c r="BA34" s="13">
+        <v>-53</v>
+      </c>
+      <c r="BB34" s="13">
         <v>-22</v>
       </c>
-      <c r="AN34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>-115</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>-178</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>-46</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>-98</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="13">
-        <v>-36</v>
-      </c>
-      <c r="AX34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="13">
-        <v>-152</v>
-      </c>
-      <c r="AZ34" s="13">
-        <v>-29</v>
-      </c>
-      <c r="BA34" s="13">
-        <v>-31</v>
-      </c>
-      <c r="BB34" s="13">
-        <v>-314</v>
-      </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>64</v>
       </c>
@@ -4246,103 +4246,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="17">
-        <v>0</v>
+        <v>7187</v>
       </c>
       <c r="X35" s="17">
-        <v>0</v>
+        <v>6209</v>
       </c>
       <c r="Y35" s="17">
-        <v>7187</v>
+        <v>6609</v>
       </c>
       <c r="Z35" s="17">
-        <v>6209</v>
+        <v>6566</v>
       </c>
       <c r="AA35" s="17">
-        <v>6609</v>
+        <v>5267</v>
       </c>
       <c r="AB35" s="17">
-        <v>6566</v>
+        <v>6192</v>
       </c>
       <c r="AC35" s="17">
-        <v>5267</v>
+        <v>6710</v>
       </c>
       <c r="AD35" s="17">
-        <v>6192</v>
+        <v>5839</v>
       </c>
       <c r="AE35" s="17">
-        <v>6710</v>
+        <v>6851</v>
       </c>
       <c r="AF35" s="17">
-        <v>5839</v>
+        <v>4435</v>
       </c>
       <c r="AG35" s="17">
-        <v>6851</v>
+        <v>6885</v>
       </c>
       <c r="AH35" s="17">
-        <v>4435</v>
+        <v>6410</v>
       </c>
       <c r="AI35" s="17">
-        <v>6885</v>
+        <v>5950</v>
       </c>
       <c r="AJ35" s="17">
-        <v>6410</v>
+        <v>6615</v>
       </c>
       <c r="AK35" s="17">
-        <v>5950</v>
+        <v>7368</v>
       </c>
       <c r="AL35" s="17">
-        <v>6615</v>
+        <v>5184</v>
       </c>
       <c r="AM35" s="17">
-        <v>7368</v>
+        <v>6257</v>
       </c>
       <c r="AN35" s="17">
-        <v>5184</v>
+        <v>5262</v>
       </c>
       <c r="AO35" s="17">
-        <v>6257</v>
+        <v>5566</v>
       </c>
       <c r="AP35" s="17">
-        <v>5262</v>
+        <v>5172</v>
       </c>
       <c r="AQ35" s="17">
-        <v>5566</v>
+        <v>8214</v>
       </c>
       <c r="AR35" s="17">
-        <v>5172</v>
+        <v>5509</v>
       </c>
       <c r="AS35" s="17">
-        <v>8214</v>
+        <v>5464</v>
       </c>
       <c r="AT35" s="17">
-        <v>5509</v>
+        <v>5752</v>
       </c>
       <c r="AU35" s="17">
-        <v>5464</v>
+        <v>5560</v>
       </c>
       <c r="AV35" s="17">
-        <v>5752</v>
+        <v>6336</v>
       </c>
       <c r="AW35" s="17">
-        <v>5560</v>
+        <v>5983</v>
       </c>
       <c r="AX35" s="17">
-        <v>6336</v>
+        <v>5365</v>
       </c>
       <c r="AY35" s="17">
-        <v>5983</v>
+        <v>6339</v>
       </c>
       <c r="AZ35" s="17">
-        <v>5365</v>
+        <v>5546</v>
       </c>
       <c r="BA35" s="17">
-        <v>6339</v>
+        <v>5249</v>
       </c>
       <c r="BB35" s="17">
-        <v>5546</v>
+        <v>11555</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4397,7 +4397,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4452,7 +4452,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4507,7 +4507,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>72</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>73</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>56</v>
       </c>
@@ -4838,104 +4838,104 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>298383</v>
+      </c>
+      <c r="X42" s="11">
+        <v>272343</v>
       </c>
       <c r="Y42" s="11">
-        <v>298383</v>
+        <v>291425</v>
       </c>
       <c r="Z42" s="11">
-        <v>272343</v>
+        <v>306967</v>
       </c>
       <c r="AA42" s="11">
-        <v>291425</v>
+        <v>270572</v>
       </c>
       <c r="AB42" s="11">
-        <v>306967</v>
+        <v>318576</v>
       </c>
       <c r="AC42" s="11">
-        <v>270572</v>
+        <v>366936</v>
       </c>
       <c r="AD42" s="11">
-        <v>318576</v>
+        <v>354501</v>
       </c>
       <c r="AE42" s="11">
-        <v>366936</v>
+        <v>393711</v>
       </c>
       <c r="AF42" s="11">
-        <v>354501</v>
+        <v>265483</v>
       </c>
       <c r="AG42" s="11">
-        <v>393711</v>
+        <v>566814</v>
       </c>
       <c r="AH42" s="11">
-        <v>265483</v>
+        <v>486548</v>
       </c>
       <c r="AI42" s="11">
-        <v>566814</v>
+        <v>478937</v>
       </c>
       <c r="AJ42" s="11">
-        <v>486548</v>
+        <v>548114</v>
       </c>
       <c r="AK42" s="11">
-        <v>478937</v>
+        <v>608349</v>
       </c>
       <c r="AL42" s="11">
-        <v>548114</v>
+        <v>459663</v>
       </c>
       <c r="AM42" s="11">
-        <v>608349</v>
+        <v>591309</v>
       </c>
       <c r="AN42" s="11">
-        <v>459663</v>
+        <v>520563</v>
       </c>
       <c r="AO42" s="11">
-        <v>591309</v>
+        <v>547437</v>
       </c>
       <c r="AP42" s="11">
-        <v>520563</v>
+        <v>478847</v>
       </c>
       <c r="AQ42" s="11">
-        <v>547437</v>
+        <v>819282</v>
       </c>
       <c r="AR42" s="11">
-        <v>478847</v>
+        <v>535334</v>
       </c>
       <c r="AS42" s="11">
-        <v>819282</v>
+        <v>620594</v>
       </c>
       <c r="AT42" s="11">
-        <v>535334</v>
+        <v>658930</v>
       </c>
       <c r="AU42" s="11">
-        <v>620594</v>
+        <v>695370</v>
       </c>
       <c r="AV42" s="11">
-        <v>658930</v>
+        <v>717328</v>
       </c>
       <c r="AW42" s="11">
-        <v>695370</v>
+        <v>789737</v>
       </c>
       <c r="AX42" s="11">
-        <v>717328</v>
+        <v>581460</v>
       </c>
       <c r="AY42" s="11">
-        <v>789737</v>
+        <v>486985</v>
       </c>
       <c r="AZ42" s="11">
-        <v>581460</v>
+        <v>585547</v>
       </c>
       <c r="BA42" s="11">
-        <v>486985</v>
+        <v>702937</v>
       </c>
       <c r="BB42" s="11">
-        <v>585547</v>
+        <v>1467006</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>67</v>
       </c>
@@ -4996,103 +4996,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="13">
-        <v>0</v>
+        <v>298383</v>
       </c>
       <c r="X43" s="13">
-        <v>0</v>
+        <v>272343</v>
       </c>
       <c r="Y43" s="13">
-        <v>298383</v>
+        <v>291425</v>
       </c>
       <c r="Z43" s="13">
-        <v>272343</v>
+        <v>306967</v>
       </c>
       <c r="AA43" s="13">
-        <v>291425</v>
+        <v>270572</v>
       </c>
       <c r="AB43" s="13">
-        <v>306967</v>
+        <v>318576</v>
       </c>
       <c r="AC43" s="13">
-        <v>270572</v>
+        <v>366936</v>
       </c>
       <c r="AD43" s="13">
-        <v>318576</v>
+        <v>354501</v>
       </c>
       <c r="AE43" s="13">
-        <v>366936</v>
+        <v>393711</v>
       </c>
       <c r="AF43" s="13">
-        <v>354501</v>
+        <v>265483</v>
       </c>
       <c r="AG43" s="13">
-        <v>393711</v>
+        <v>566814</v>
       </c>
       <c r="AH43" s="13">
-        <v>265483</v>
+        <v>486548</v>
       </c>
       <c r="AI43" s="13">
-        <v>566814</v>
+        <v>478937</v>
       </c>
       <c r="AJ43" s="13">
-        <v>486548</v>
+        <v>548114</v>
       </c>
       <c r="AK43" s="13">
-        <v>478937</v>
+        <v>608349</v>
       </c>
       <c r="AL43" s="13">
-        <v>548114</v>
+        <v>459663</v>
       </c>
       <c r="AM43" s="13">
-        <v>608349</v>
+        <v>591309</v>
       </c>
       <c r="AN43" s="13">
-        <v>459663</v>
+        <v>520563</v>
       </c>
       <c r="AO43" s="13">
-        <v>591309</v>
+        <v>547437</v>
       </c>
       <c r="AP43" s="13">
-        <v>520563</v>
+        <v>478847</v>
       </c>
       <c r="AQ43" s="13">
-        <v>547437</v>
+        <v>819282</v>
       </c>
       <c r="AR43" s="13">
-        <v>478847</v>
+        <v>535334</v>
       </c>
       <c r="AS43" s="13">
-        <v>819282</v>
+        <v>620594</v>
       </c>
       <c r="AT43" s="13">
-        <v>535334</v>
+        <v>658930</v>
       </c>
       <c r="AU43" s="13">
-        <v>620594</v>
+        <v>695370</v>
       </c>
       <c r="AV43" s="13">
-        <v>658930</v>
+        <v>717328</v>
       </c>
       <c r="AW43" s="13">
-        <v>695370</v>
+        <v>789737</v>
       </c>
       <c r="AX43" s="13">
-        <v>717328</v>
+        <v>581460</v>
       </c>
       <c r="AY43" s="13">
-        <v>789737</v>
+        <v>486985</v>
       </c>
       <c r="AZ43" s="13">
-        <v>581460</v>
+        <v>585547</v>
       </c>
       <c r="BA43" s="13">
-        <v>486985</v>
+        <v>702937</v>
       </c>
       <c r="BB43" s="13">
-        <v>585547</v>
+        <v>1467006</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5211,104 +5211,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>10074</v>
+      </c>
+      <c r="X45" s="11">
+        <v>9062</v>
       </c>
       <c r="Y45" s="11">
-        <v>10074</v>
+        <v>14575</v>
       </c>
       <c r="Z45" s="11">
-        <v>9062</v>
+        <v>8662</v>
       </c>
       <c r="AA45" s="11">
-        <v>14575</v>
+        <v>4510</v>
       </c>
       <c r="AB45" s="11">
-        <v>8662</v>
+        <v>28365</v>
       </c>
       <c r="AC45" s="11">
-        <v>4510</v>
+        <v>22887</v>
       </c>
       <c r="AD45" s="11">
-        <v>28365</v>
+        <v>2658</v>
       </c>
       <c r="AE45" s="11">
-        <v>22887</v>
+        <v>16256</v>
       </c>
       <c r="AF45" s="11">
-        <v>2658</v>
+        <v>14932</v>
       </c>
       <c r="AG45" s="11">
-        <v>16256</v>
+        <v>6656</v>
       </c>
       <c r="AH45" s="11">
-        <v>14932</v>
+        <v>45588</v>
       </c>
       <c r="AI45" s="11">
-        <v>6656</v>
+        <v>12627</v>
       </c>
       <c r="AJ45" s="11">
-        <v>45588</v>
+        <v>23104</v>
       </c>
       <c r="AK45" s="11">
-        <v>12627</v>
+        <v>31685</v>
       </c>
       <c r="AL45" s="11">
-        <v>23104</v>
+        <v>26356</v>
       </c>
       <c r="AM45" s="11">
-        <v>31685</v>
+        <v>38493</v>
       </c>
       <c r="AN45" s="11">
-        <v>26356</v>
+        <v>25960</v>
       </c>
       <c r="AO45" s="11">
-        <v>38493</v>
+        <v>21936</v>
       </c>
       <c r="AP45" s="11">
-        <v>25960</v>
+        <v>37834</v>
       </c>
       <c r="AQ45" s="11">
-        <v>21936</v>
+        <v>23544</v>
       </c>
       <c r="AR45" s="11">
-        <v>37834</v>
+        <v>19568</v>
       </c>
       <c r="AS45" s="11">
-        <v>23544</v>
+        <v>16944</v>
       </c>
       <c r="AT45" s="11">
-        <v>19568</v>
+        <v>52101</v>
       </c>
       <c r="AU45" s="11">
-        <v>16944</v>
+        <v>45620</v>
       </c>
       <c r="AV45" s="11">
-        <v>52101</v>
+        <v>83775</v>
       </c>
       <c r="AW45" s="11">
-        <v>45620</v>
+        <v>45274</v>
       </c>
       <c r="AX45" s="11">
-        <v>83775</v>
+        <v>118477</v>
       </c>
       <c r="AY45" s="11">
-        <v>45274</v>
+        <v>263587</v>
       </c>
       <c r="AZ45" s="11">
-        <v>118477</v>
+        <v>183437</v>
       </c>
       <c r="BA45" s="11">
-        <v>263587</v>
+        <v>41415</v>
       </c>
       <c r="BB45" s="11">
-        <v>183437</v>
+        <v>135606</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -5369,103 +5369,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>0</v>
+        <v>10074</v>
       </c>
       <c r="X46" s="13">
-        <v>0</v>
+        <v>9062</v>
       </c>
       <c r="Y46" s="13">
-        <v>10074</v>
+        <v>14575</v>
       </c>
       <c r="Z46" s="13">
-        <v>9062</v>
+        <v>8662</v>
       </c>
       <c r="AA46" s="13">
-        <v>14575</v>
+        <v>4510</v>
       </c>
       <c r="AB46" s="13">
-        <v>8662</v>
+        <v>28365</v>
       </c>
       <c r="AC46" s="13">
-        <v>4510</v>
+        <v>22887</v>
       </c>
       <c r="AD46" s="13">
-        <v>28365</v>
+        <v>2658</v>
       </c>
       <c r="AE46" s="13">
-        <v>22887</v>
+        <v>16256</v>
       </c>
       <c r="AF46" s="13">
-        <v>2658</v>
+        <v>14932</v>
       </c>
       <c r="AG46" s="13">
-        <v>16256</v>
+        <v>6656</v>
       </c>
       <c r="AH46" s="13">
-        <v>14932</v>
+        <v>45588</v>
       </c>
       <c r="AI46" s="13">
-        <v>6656</v>
+        <v>12627</v>
       </c>
       <c r="AJ46" s="13">
-        <v>45588</v>
+        <v>23104</v>
       </c>
       <c r="AK46" s="13">
-        <v>12627</v>
+        <v>31685</v>
       </c>
       <c r="AL46" s="13">
-        <v>23104</v>
+        <v>26356</v>
       </c>
       <c r="AM46" s="13">
-        <v>31685</v>
+        <v>38493</v>
       </c>
       <c r="AN46" s="13">
-        <v>26356</v>
+        <v>25960</v>
       </c>
       <c r="AO46" s="13">
-        <v>38493</v>
+        <v>21936</v>
       </c>
       <c r="AP46" s="13">
-        <v>25960</v>
+        <v>37834</v>
       </c>
       <c r="AQ46" s="13">
-        <v>21936</v>
+        <v>23544</v>
       </c>
       <c r="AR46" s="13">
-        <v>37834</v>
+        <v>19568</v>
       </c>
       <c r="AS46" s="13">
-        <v>23544</v>
+        <v>16944</v>
       </c>
       <c r="AT46" s="13">
-        <v>19568</v>
+        <v>52101</v>
       </c>
       <c r="AU46" s="13">
-        <v>16944</v>
+        <v>45620</v>
       </c>
       <c r="AV46" s="13">
-        <v>52101</v>
+        <v>83775</v>
       </c>
       <c r="AW46" s="13">
-        <v>45620</v>
+        <v>45274</v>
       </c>
       <c r="AX46" s="13">
-        <v>83775</v>
+        <v>118477</v>
       </c>
       <c r="AY46" s="13">
-        <v>45274</v>
+        <v>263587</v>
       </c>
       <c r="AZ46" s="13">
-        <v>118477</v>
+        <v>183437</v>
       </c>
       <c r="BA46" s="13">
-        <v>263587</v>
+        <v>41415</v>
       </c>
       <c r="BB46" s="13">
-        <v>183437</v>
+        <v>135606</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="BA47" s="15"/>
       <c r="BB47" s="15"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>63</v>
       </c>
@@ -5584,11 +5584,11 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
       </c>
       <c r="Y48" s="17">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -5800,35 +5800,35 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>-790</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="11">
         <v>0</v>
       </c>
       <c r="AA50" s="11">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AB50" s="11">
         <v>0</v>
       </c>
       <c r="AC50" s="11">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="11">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AE50" s="11">
         <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="11">
         <v>0</v>
@@ -5843,28 +5843,28 @@
         <v>0</v>
       </c>
       <c r="AK50" s="11">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AL50" s="11">
         <v>0</v>
       </c>
       <c r="AM50" s="11">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AN50" s="11">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AO50" s="11">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AP50" s="11">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AQ50" s="11">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="11">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AS50" s="11">
         <v>0</v>
@@ -5873,31 +5873,31 @@
         <v>0</v>
       </c>
       <c r="AU50" s="11">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AV50" s="11">
         <v>0</v>
       </c>
       <c r="AW50" s="11">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AX50" s="11">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="AY50" s="11">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
       <c r="BA50" s="11">
-        <v>-4838</v>
+        <v>-7542</v>
       </c>
       <c r="BB50" s="11">
-        <v>-46969</v>
+        <v>-2958</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
@@ -5959,35 +5959,35 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>-790</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="13">
         <v>0</v>
       </c>
       <c r="AA51" s="13">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="AB51" s="13">
         <v>0</v>
       </c>
       <c r="AC51" s="13">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="13">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AE51" s="13">
         <v>0</v>
       </c>
       <c r="AF51" s="13">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="13">
         <v>0</v>
@@ -6002,28 +6002,28 @@
         <v>0</v>
       </c>
       <c r="AK51" s="13">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AL51" s="13">
         <v>0</v>
       </c>
       <c r="AM51" s="13">
-        <v>-1987</v>
+        <v>-9754</v>
       </c>
       <c r="AN51" s="13">
-        <v>0</v>
+        <v>-14982</v>
       </c>
       <c r="AO51" s="13">
-        <v>-9754</v>
+        <v>-3637</v>
       </c>
       <c r="AP51" s="13">
-        <v>-14982</v>
+        <v>-8660</v>
       </c>
       <c r="AQ51" s="13">
-        <v>-3637</v>
+        <v>0</v>
       </c>
       <c r="AR51" s="13">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="13">
         <v>0</v>
@@ -6032,31 +6032,31 @@
         <v>0</v>
       </c>
       <c r="AU51" s="13">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AV51" s="13">
         <v>0</v>
       </c>
       <c r="AW51" s="13">
-        <v>-4459</v>
+        <v>-20975</v>
       </c>
       <c r="AX51" s="13">
-        <v>0</v>
+        <v>-4087</v>
       </c>
       <c r="AY51" s="13">
-        <v>-20975</v>
+        <v>-4838</v>
       </c>
       <c r="AZ51" s="13">
-        <v>-4087</v>
+        <v>-46969</v>
       </c>
       <c r="BA51" s="13">
-        <v>-4838</v>
+        <v>-7542</v>
       </c>
       <c r="BB51" s="13">
-        <v>-46969</v>
+        <v>-2958</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>79</v>
       </c>
@@ -6175,104 +6175,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>-191</v>
+      </c>
+      <c r="X53" s="11">
+        <v>-144</v>
       </c>
       <c r="Y53" s="11">
-        <v>-191</v>
+        <v>-151</v>
       </c>
       <c r="Z53" s="11">
+        <v>-97</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>-61</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>-8</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>-74</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>-39</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>-54</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>-25</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>-38</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>-43</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>-121</v>
+      </c>
+      <c r="AN53" s="11">
+        <v>-73</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>-163</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>-99</v>
+      </c>
+      <c r="AQ53" s="11">
         <v>-144</v>
       </c>
-      <c r="AA53" s="11">
-        <v>-151</v>
-      </c>
-      <c r="AB53" s="11">
-        <v>-97</v>
-      </c>
-      <c r="AC53" s="11">
+      <c r="AR53" s="11">
+        <v>-270</v>
+      </c>
+      <c r="AS53" s="11">
         <v>-19</v>
       </c>
-      <c r="AD53" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>-61</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>-8</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>-74</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>-39</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>-54</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>-25</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>-38</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AO53" s="11">
-        <v>-121</v>
-      </c>
-      <c r="AP53" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>-163</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>-99</v>
-      </c>
-      <c r="AS53" s="11">
-        <v>-144</v>
-      </c>
       <c r="AT53" s="11">
-        <v>-270</v>
+        <v>-135</v>
       </c>
       <c r="AU53" s="11">
-        <v>-19</v>
+        <v>-37</v>
       </c>
       <c r="AV53" s="11">
-        <v>-135</v>
+        <v>-397</v>
       </c>
       <c r="AW53" s="11">
-        <v>-37</v>
+        <v>-8349</v>
       </c>
       <c r="AX53" s="11">
-        <v>-397</v>
+        <v>-9695</v>
       </c>
       <c r="AY53" s="11">
-        <v>-8349</v>
+        <v>-16312</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-9695</v>
+        <v>-24729</v>
       </c>
       <c r="BA53" s="11">
-        <v>-16312</v>
+        <v>-69610</v>
       </c>
       <c r="BB53" s="11">
-        <v>-24729</v>
+        <v>-251732</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>64</v>
       </c>
@@ -6333,103 +6333,103 @@
         <v>0</v>
       </c>
       <c r="W54" s="13">
-        <v>0</v>
+        <v>307476</v>
       </c>
       <c r="X54" s="13">
-        <v>0</v>
+        <v>281261</v>
       </c>
       <c r="Y54" s="13">
-        <v>307476</v>
+        <v>305849</v>
       </c>
       <c r="Z54" s="13">
-        <v>281261</v>
+        <v>315532</v>
       </c>
       <c r="AA54" s="13">
-        <v>305849</v>
+        <v>273511</v>
       </c>
       <c r="AB54" s="13">
-        <v>315532</v>
+        <v>346902</v>
       </c>
       <c r="AC54" s="13">
-        <v>273511</v>
+        <v>389762</v>
       </c>
       <c r="AD54" s="13">
-        <v>346902</v>
+        <v>356174</v>
       </c>
       <c r="AE54" s="13">
-        <v>389762</v>
+        <v>409893</v>
       </c>
       <c r="AF54" s="13">
-        <v>356174</v>
+        <v>280376</v>
       </c>
       <c r="AG54" s="13">
-        <v>409893</v>
+        <v>573416</v>
       </c>
       <c r="AH54" s="13">
-        <v>280376</v>
+        <v>532111</v>
       </c>
       <c r="AI54" s="13">
-        <v>573416</v>
+        <v>491526</v>
       </c>
       <c r="AJ54" s="13">
-        <v>532111</v>
+        <v>571145</v>
       </c>
       <c r="AK54" s="13">
-        <v>491526</v>
+        <v>638004</v>
       </c>
       <c r="AL54" s="13">
-        <v>571145</v>
+        <v>485976</v>
       </c>
       <c r="AM54" s="13">
-        <v>638004</v>
+        <v>619927</v>
       </c>
       <c r="AN54" s="13">
-        <v>485976</v>
+        <v>531468</v>
       </c>
       <c r="AO54" s="13">
-        <v>619927</v>
+        <v>565573</v>
       </c>
       <c r="AP54" s="13">
-        <v>531468</v>
+        <v>507922</v>
       </c>
       <c r="AQ54" s="13">
-        <v>565573</v>
+        <v>842682</v>
       </c>
       <c r="AR54" s="13">
-        <v>507922</v>
+        <v>554632</v>
       </c>
       <c r="AS54" s="13">
-        <v>842682</v>
+        <v>637519</v>
       </c>
       <c r="AT54" s="13">
-        <v>554632</v>
+        <v>710896</v>
       </c>
       <c r="AU54" s="13">
-        <v>637519</v>
+        <v>736494</v>
       </c>
       <c r="AV54" s="13">
-        <v>710896</v>
+        <v>800706</v>
       </c>
       <c r="AW54" s="13">
-        <v>736494</v>
+        <v>805687</v>
       </c>
       <c r="AX54" s="13">
-        <v>800706</v>
+        <v>686155</v>
       </c>
       <c r="AY54" s="13">
-        <v>805687</v>
+        <v>729422</v>
       </c>
       <c r="AZ54" s="13">
-        <v>686155</v>
+        <v>697286</v>
       </c>
       <c r="BA54" s="13">
-        <v>729422</v>
+        <v>667200</v>
       </c>
       <c r="BB54" s="13">
-        <v>697286</v>
+        <v>1347922</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6484,7 +6484,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6539,7 +6539,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>80</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6806,7 +6806,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -6925,104 +6925,104 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>42766662</v>
+      </c>
+      <c r="X61" s="11">
+        <v>45157188</v>
       </c>
       <c r="Y61" s="11">
-        <v>42766662</v>
+        <v>46031433</v>
       </c>
       <c r="Z61" s="11">
-        <v>45157188</v>
+        <v>47806728</v>
       </c>
       <c r="AA61" s="11">
-        <v>46031433</v>
+        <v>51794028</v>
       </c>
       <c r="AB61" s="11">
-        <v>47806728</v>
+        <v>54945843</v>
       </c>
       <c r="AC61" s="11">
-        <v>51794028</v>
+        <v>58299333</v>
       </c>
       <c r="AD61" s="11">
-        <v>54945843</v>
+        <v>61078739</v>
       </c>
       <c r="AE61" s="11">
-        <v>58299333</v>
+        <v>60108550</v>
       </c>
       <c r="AF61" s="11">
-        <v>61078739</v>
+        <v>63135077</v>
       </c>
       <c r="AG61" s="11">
-        <v>60108550</v>
+        <v>83835823</v>
       </c>
       <c r="AH61" s="11">
-        <v>63135077</v>
+        <v>86976761</v>
       </c>
       <c r="AI61" s="11">
-        <v>83835823</v>
+        <v>83598708</v>
       </c>
       <c r="AJ61" s="11">
-        <v>86976761</v>
+        <v>87390625</v>
       </c>
       <c r="AK61" s="11">
-        <v>83598708</v>
+        <v>87759521</v>
       </c>
       <c r="AL61" s="11">
-        <v>87390625</v>
+        <v>96750789</v>
       </c>
       <c r="AM61" s="11">
-        <v>87759521</v>
+        <v>101756840</v>
       </c>
       <c r="AN61" s="11">
-        <v>96750789</v>
+        <v>101891368</v>
       </c>
       <c r="AO61" s="11">
-        <v>101756840</v>
+        <v>102843697</v>
       </c>
       <c r="AP61" s="11">
-        <v>101891368</v>
+        <v>103244286</v>
       </c>
       <c r="AQ61" s="11">
-        <v>102843697</v>
+        <v>104780918</v>
       </c>
       <c r="AR61" s="11">
-        <v>103244286</v>
+        <v>102948846</v>
       </c>
       <c r="AS61" s="11">
-        <v>104780918</v>
+        <v>119413893</v>
       </c>
       <c r="AT61" s="11">
-        <v>102948846</v>
+        <v>130429533</v>
       </c>
       <c r="AU61" s="11">
-        <v>119413893</v>
+        <v>139157495</v>
       </c>
       <c r="AV61" s="11">
-        <v>130429533</v>
+        <v>137261385</v>
       </c>
       <c r="AW61" s="11">
-        <v>139157495</v>
+        <v>141479219</v>
       </c>
       <c r="AX61" s="11">
-        <v>137261385</v>
+        <v>143712308</v>
       </c>
       <c r="AY61" s="11">
-        <v>141479219</v>
+        <v>142434922</v>
       </c>
       <c r="AZ61" s="11">
-        <v>143712308</v>
+        <v>142990720</v>
       </c>
       <c r="BA61" s="11">
-        <v>142434922</v>
+        <v>142237353</v>
       </c>
       <c r="BB61" s="11">
-        <v>142990720</v>
+        <v>142220650</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>83</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -7141,101 +7141,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>43800000</v>
+      </c>
+      <c r="X63" s="11">
+        <v>50910112</v>
       </c>
       <c r="Y63" s="11">
-        <v>43800000</v>
+        <v>52428058</v>
       </c>
       <c r="Z63" s="11">
-        <v>50910112</v>
+        <v>59737931</v>
       </c>
       <c r="AA63" s="11">
-        <v>52428058</v>
+        <v>60133333</v>
       </c>
       <c r="AB63" s="11">
-        <v>59737931</v>
+        <v>71992386</v>
       </c>
       <c r="AC63" s="11">
-        <v>60133333</v>
+        <v>55016827</v>
       </c>
       <c r="AD63" s="11">
-        <v>71992386</v>
+        <v>54244898</v>
       </c>
       <c r="AE63" s="11">
-        <v>55016827</v>
+        <v>54006645</v>
       </c>
       <c r="AF63" s="11">
-        <v>54244898</v>
+        <v>64921739</v>
       </c>
       <c r="AG63" s="11">
-        <v>54006645</v>
+        <v>53677419</v>
       </c>
       <c r="AH63" s="11">
-        <v>64921739</v>
+        <v>55867647</v>
       </c>
       <c r="AI63" s="11">
-        <v>53677419</v>
+        <v>57135747</v>
       </c>
       <c r="AJ63" s="11">
-        <v>55867647</v>
+        <v>67358601</v>
       </c>
       <c r="AK63" s="11">
-        <v>57135747</v>
+        <v>69181223</v>
       </c>
       <c r="AL63" s="11">
-        <v>67358601</v>
+        <v>60868360</v>
       </c>
       <c r="AM63" s="11">
-        <v>69181223</v>
+        <v>68614973</v>
       </c>
       <c r="AN63" s="11">
-        <v>60868360</v>
+        <v>78429003</v>
       </c>
       <c r="AO63" s="11">
-        <v>68614973</v>
+        <v>75903114</v>
       </c>
       <c r="AP63" s="11">
-        <v>78429003</v>
+        <v>59863924</v>
       </c>
       <c r="AQ63" s="11">
-        <v>75903114</v>
+        <v>59605063</v>
       </c>
       <c r="AR63" s="11">
-        <v>59863924</v>
+        <v>63326861</v>
       </c>
       <c r="AS63" s="11">
-        <v>59605063</v>
+        <v>63460674</v>
       </c>
       <c r="AT63" s="11">
-        <v>63326861</v>
+        <v>74430000</v>
       </c>
       <c r="AU63" s="11">
-        <v>63460674</v>
+        <v>76160267</v>
       </c>
       <c r="AV63" s="11">
-        <v>74430000</v>
+        <v>75472973</v>
       </c>
       <c r="AW63" s="11">
-        <v>76160267</v>
+        <v>81869801</v>
       </c>
       <c r="AX63" s="11">
-        <v>75472973</v>
+        <v>87890950</v>
       </c>
       <c r="AY63" s="11">
-        <v>81869801</v>
+        <v>89321247</v>
       </c>
       <c r="AZ63" s="11">
-        <v>87890950</v>
+        <v>103930312</v>
       </c>
       <c r="BA63" s="11">
-        <v>89321247</v>
+        <v>115041667</v>
       </c>
       <c r="BB63" s="11">
-        <v>103930312</v>
+        <v>107453249</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
+++ b/database/industries/shishe/kehamda/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="84">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3276,107 +3276,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>5802</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>5802</v>
+        <v>5647</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>5647</v>
+        <v>6003</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>6003</v>
+        <v>5610</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>5610</v>
+        <v>5307</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>5307</v>
+        <v>5804</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>5804</v>
+        <v>6180</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>6180</v>
+        <v>6152</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>6152</v>
+        <v>6455</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>6455</v>
+        <v>6708</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>6708</v>
+        <v>6433</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>6433</v>
+        <v>6495</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>6495</v>
+        <v>6340</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>6340</v>
+        <v>6507</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>6507</v>
+        <v>6445</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>6445</v>
+        <v>6225</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>6225</v>
+        <v>6345</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>6345</v>
+        <v>6033</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>6033</v>
+        <v>5866</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>5866</v>
+        <v>6466</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>6466</v>
+        <v>6368</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>6368</v>
+        <v>9629</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>9629</v>
+        <v>9438</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>9438</v>
+        <v>7693</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>7693</v>
+        <v>7215</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>7215</v>
+        <v>6594</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>6594</v>
+        <v>7795</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>7795</v>
+        <v>8972</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>8972</v>
+        <v>8924</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>8924</v>
+        <v>8906</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>8906</v>
+        <v>9451</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>9451</v>
+        <v>9866</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>9866</v>
+        <v>10968</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>10968</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,106 +3434,106 @@
         <v>0</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>5802</v>
+        <v>5647</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>5647</v>
+        <v>6003</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>6003</v>
+        <v>5610</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>5610</v>
+        <v>5307</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>5307</v>
+        <v>5804</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>5804</v>
+        <v>6180</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>6180</v>
+        <v>6152</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>6152</v>
+        <v>6455</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>6455</v>
+        <v>6708</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>6708</v>
+        <v>6433</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>6433</v>
+        <v>6495</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>6495</v>
+        <v>6340</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>6340</v>
+        <v>6507</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>6507</v>
+        <v>6445</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>6445</v>
+        <v>6225</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>6225</v>
+        <v>6345</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>6345</v>
+        <v>6033</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>6033</v>
+        <v>5866</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>5866</v>
+        <v>6466</v>
       </c>
       <c r="AO12" s="15" t="n">
-        <v>6466</v>
+        <v>6368</v>
       </c>
       <c r="AP12" s="15" t="n">
-        <v>6368</v>
+        <v>9629</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>9629</v>
+        <v>9438</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>9438</v>
+        <v>7693</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>7693</v>
+        <v>7215</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>7215</v>
+        <v>6594</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>6594</v>
+        <v>7795</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>7795</v>
+        <v>8972</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>8972</v>
+        <v>8924</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>8924</v>
+        <v>8906</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>8906</v>
+        <v>9451</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>9451</v>
+        <v>9866</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>9866</v>
+        <v>10968</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>10968</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,8 +3649,8 @@
       <c r="T14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>58</v>
+      <c r="U14" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="13" t="n">
         <v>0</v>
@@ -3679,8 +3679,8 @@
       <c r="AD14" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" s="13" t="n">
-        <v>0</v>
+      <c r="AE14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF14" s="13" t="s">
         <v>58</v>
@@ -3688,11 +3688,11 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="13" t="n">
-        <v>0</v>
+      <c r="AH14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ14" s="13" t="s">
         <v>58</v>
@@ -3712,8 +3712,8 @@
       <c r="AO14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
+      <c r="AP14" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="13" t="n">
         <v>0</v>
@@ -4020,8 +4020,8 @@
       <c r="T17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="19" t="s">
-        <v>58</v>
+      <c r="U17" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="19" t="n">
         <v>0</v>
@@ -4178,106 +4178,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="15" t="n">
-        <v>0</v>
+        <v>5802</v>
       </c>
       <c r="V18" s="15" t="n">
-        <v>5802</v>
+        <v>5647</v>
       </c>
       <c r="W18" s="15" t="n">
-        <v>5647</v>
+        <v>6003</v>
       </c>
       <c r="X18" s="15" t="n">
-        <v>6003</v>
+        <v>5610</v>
       </c>
       <c r="Y18" s="15" t="n">
-        <v>5610</v>
+        <v>5307</v>
       </c>
       <c r="Z18" s="15" t="n">
-        <v>5307</v>
+        <v>5804</v>
       </c>
       <c r="AA18" s="15" t="n">
-        <v>5804</v>
+        <v>6180</v>
       </c>
       <c r="AB18" s="15" t="n">
-        <v>6180</v>
+        <v>6152</v>
       </c>
       <c r="AC18" s="15" t="n">
-        <v>6152</v>
+        <v>6455</v>
       </c>
       <c r="AD18" s="15" t="n">
-        <v>6455</v>
+        <v>6708</v>
       </c>
       <c r="AE18" s="15" t="n">
-        <v>6708</v>
+        <v>6433</v>
       </c>
       <c r="AF18" s="15" t="n">
-        <v>6433</v>
+        <v>6495</v>
       </c>
       <c r="AG18" s="15" t="n">
-        <v>6495</v>
+        <v>6340</v>
       </c>
       <c r="AH18" s="15" t="n">
-        <v>6340</v>
+        <v>6507</v>
       </c>
       <c r="AI18" s="15" t="n">
-        <v>6507</v>
+        <v>6445</v>
       </c>
       <c r="AJ18" s="15" t="n">
-        <v>6445</v>
+        <v>6225</v>
       </c>
       <c r="AK18" s="15" t="n">
-        <v>6225</v>
+        <v>6345</v>
       </c>
       <c r="AL18" s="15" t="n">
-        <v>6345</v>
+        <v>6033</v>
       </c>
       <c r="AM18" s="15" t="n">
-        <v>6033</v>
+        <v>5866</v>
       </c>
       <c r="AN18" s="15" t="n">
-        <v>5866</v>
+        <v>6466</v>
       </c>
       <c r="AO18" s="15" t="n">
-        <v>6466</v>
+        <v>6368</v>
       </c>
       <c r="AP18" s="15" t="n">
-        <v>6368</v>
+        <v>9629</v>
       </c>
       <c r="AQ18" s="15" t="n">
-        <v>9629</v>
+        <v>9438</v>
       </c>
       <c r="AR18" s="15" t="n">
-        <v>9438</v>
+        <v>7693</v>
       </c>
       <c r="AS18" s="15" t="n">
-        <v>7693</v>
+        <v>7215</v>
       </c>
       <c r="AT18" s="15" t="n">
-        <v>7215</v>
+        <v>6594</v>
       </c>
       <c r="AU18" s="15" t="n">
-        <v>6594</v>
+        <v>7795</v>
       </c>
       <c r="AV18" s="15" t="n">
-        <v>7795</v>
+        <v>8972</v>
       </c>
       <c r="AW18" s="15" t="n">
-        <v>8972</v>
+        <v>8924</v>
       </c>
       <c r="AX18" s="15" t="n">
-        <v>8924</v>
+        <v>8906</v>
       </c>
       <c r="AY18" s="15" t="n">
-        <v>8906</v>
+        <v>9451</v>
       </c>
       <c r="AZ18" s="15" t="n">
-        <v>9451</v>
+        <v>9866</v>
       </c>
       <c r="BA18" s="15" t="n">
-        <v>9866</v>
+        <v>10968</v>
       </c>
       <c r="BB18" s="15" t="n">
-        <v>10968</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,107 +4770,107 @@
       <c r="T25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>58</v>
+      <c r="U25" s="13" t="n">
+        <v>6977</v>
       </c>
       <c r="V25" s="13" t="n">
-        <v>6977</v>
+        <v>6031</v>
       </c>
       <c r="W25" s="13" t="n">
-        <v>6031</v>
+        <v>6331</v>
       </c>
       <c r="X25" s="13" t="n">
-        <v>6331</v>
+        <v>6421</v>
       </c>
       <c r="Y25" s="13" t="n">
-        <v>6421</v>
+        <v>5224</v>
       </c>
       <c r="Z25" s="13" t="n">
-        <v>5224</v>
+        <v>5798</v>
       </c>
       <c r="AA25" s="13" t="n">
-        <v>5798</v>
+        <v>6294</v>
       </c>
       <c r="AB25" s="13" t="n">
-        <v>6294</v>
+        <v>5804</v>
       </c>
       <c r="AC25" s="13" t="n">
-        <v>5804</v>
+        <v>6550</v>
       </c>
       <c r="AD25" s="13" t="n">
-        <v>6550</v>
+        <v>4205</v>
       </c>
       <c r="AE25" s="13" t="n">
-        <v>4205</v>
+        <v>6761</v>
       </c>
       <c r="AF25" s="13" t="n">
-        <v>6761</v>
+        <v>5594</v>
       </c>
       <c r="AG25" s="13" t="n">
-        <v>5594</v>
+        <v>5729</v>
       </c>
       <c r="AH25" s="13" t="n">
-        <v>5729</v>
+        <v>6272</v>
       </c>
       <c r="AI25" s="13" t="n">
-        <v>6272</v>
+        <v>6932</v>
       </c>
       <c r="AJ25" s="13" t="n">
-        <v>6932</v>
+        <v>4751</v>
       </c>
       <c r="AK25" s="13" t="n">
-        <v>4751</v>
+        <v>5811</v>
       </c>
       <c r="AL25" s="13" t="n">
-        <v>5811</v>
+        <v>5109</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>5109</v>
+        <v>5323</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>5323</v>
+        <v>4638</v>
       </c>
       <c r="AO25" s="13" t="n">
-        <v>4638</v>
+        <v>7819</v>
       </c>
       <c r="AP25" s="13" t="n">
-        <v>7819</v>
+        <v>5200</v>
       </c>
       <c r="AQ25" s="13" t="n">
-        <v>5200</v>
+        <v>5197</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>5197</v>
+        <v>5052</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>5052</v>
+        <v>4997</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>4997</v>
+        <v>5226</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>5226</v>
+        <v>5582</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>5582</v>
+        <v>4046</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>4046</v>
+        <v>3419</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>3419</v>
+        <v>4095</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>4095</v>
+        <v>4942</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>4942</v>
+        <v>10315</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>10315</v>
+        <v>9799</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>9799</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,106 +4928,106 @@
         <v>0</v>
       </c>
       <c r="U26" s="15" t="n">
-        <v>0</v>
+        <v>6977</v>
       </c>
       <c r="V26" s="15" t="n">
-        <v>6977</v>
+        <v>6031</v>
       </c>
       <c r="W26" s="15" t="n">
-        <v>6031</v>
+        <v>6331</v>
       </c>
       <c r="X26" s="15" t="n">
-        <v>6331</v>
+        <v>6421</v>
       </c>
       <c r="Y26" s="15" t="n">
-        <v>6421</v>
+        <v>5224</v>
       </c>
       <c r="Z26" s="15" t="n">
-        <v>5224</v>
+        <v>5798</v>
       </c>
       <c r="AA26" s="15" t="n">
-        <v>5798</v>
+        <v>6294</v>
       </c>
       <c r="AB26" s="15" t="n">
-        <v>6294</v>
+        <v>5804</v>
       </c>
       <c r="AC26" s="15" t="n">
-        <v>5804</v>
+        <v>6550</v>
       </c>
       <c r="AD26" s="15" t="n">
-        <v>6550</v>
+        <v>4205</v>
       </c>
       <c r="AE26" s="15" t="n">
-        <v>4205</v>
+        <v>6761</v>
       </c>
       <c r="AF26" s="15" t="n">
-        <v>6761</v>
+        <v>5594</v>
       </c>
       <c r="AG26" s="15" t="n">
-        <v>5594</v>
+        <v>5729</v>
       </c>
       <c r="AH26" s="15" t="n">
-        <v>5729</v>
+        <v>6272</v>
       </c>
       <c r="AI26" s="15" t="n">
-        <v>6272</v>
+        <v>6932</v>
       </c>
       <c r="AJ26" s="15" t="n">
-        <v>6932</v>
+        <v>4751</v>
       </c>
       <c r="AK26" s="15" t="n">
-        <v>4751</v>
+        <v>5811</v>
       </c>
       <c r="AL26" s="15" t="n">
-        <v>5811</v>
+        <v>5109</v>
       </c>
       <c r="AM26" s="15" t="n">
-        <v>5109</v>
+        <v>5323</v>
       </c>
       <c r="AN26" s="15" t="n">
-        <v>5323</v>
+        <v>4638</v>
       </c>
       <c r="AO26" s="15" t="n">
-        <v>4638</v>
+        <v>7819</v>
       </c>
       <c r="AP26" s="15" t="n">
-        <v>7819</v>
+        <v>5200</v>
       </c>
       <c r="AQ26" s="15" t="n">
-        <v>5200</v>
+        <v>5197</v>
       </c>
       <c r="AR26" s="15" t="n">
-        <v>5197</v>
+        <v>5052</v>
       </c>
       <c r="AS26" s="15" t="n">
-        <v>5052</v>
+        <v>4997</v>
       </c>
       <c r="AT26" s="15" t="n">
-        <v>4997</v>
+        <v>5226</v>
       </c>
       <c r="AU26" s="15" t="n">
-        <v>5226</v>
+        <v>5582</v>
       </c>
       <c r="AV26" s="15" t="n">
-        <v>5582</v>
+        <v>4046</v>
       </c>
       <c r="AW26" s="15" t="n">
-        <v>4046</v>
+        <v>3419</v>
       </c>
       <c r="AX26" s="15" t="n">
-        <v>3419</v>
+        <v>4095</v>
       </c>
       <c r="AY26" s="15" t="n">
-        <v>4095</v>
+        <v>4942</v>
       </c>
       <c r="AZ26" s="15" t="n">
-        <v>4942</v>
+        <v>10315</v>
       </c>
       <c r="BA26" s="15" t="n">
-        <v>10315</v>
+        <v>9799</v>
       </c>
       <c r="BB26" s="15" t="n">
-        <v>9799</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,107 +5143,107 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>230</v>
       </c>
       <c r="V28" s="13" t="n">
+        <v>178</v>
+      </c>
+      <c r="W28" s="13" t="n">
+        <v>278</v>
+      </c>
+      <c r="X28" s="13" t="n">
+        <v>145</v>
+      </c>
+      <c r="Y28" s="13" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z28" s="13" t="n">
+        <v>394</v>
+      </c>
+      <c r="AA28" s="13" t="n">
+        <v>416</v>
+      </c>
+      <c r="AB28" s="13" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC28" s="13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AD28" s="13" t="n">
         <v>230</v>
       </c>
-      <c r="W28" s="13" t="n">
-        <v>178</v>
-      </c>
-      <c r="X28" s="13" t="n">
-        <v>278</v>
-      </c>
-      <c r="Y28" s="13" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z28" s="13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA28" s="13" t="n">
-        <v>394</v>
-      </c>
-      <c r="AB28" s="13" t="n">
-        <v>416</v>
-      </c>
-      <c r="AC28" s="13" t="n">
-        <v>49</v>
-      </c>
-      <c r="AD28" s="13" t="n">
-        <v>301</v>
-      </c>
       <c r="AE28" s="13" t="n">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>124</v>
+        <v>816</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>816</v>
+        <v>221</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>561</v>
+        <v>331</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>289</v>
+        <v>632</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>632</v>
+        <v>395</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>267</v>
+        <v>700</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>599</v>
+        <v>1110</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>1110</v>
+        <v>553</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>553</v>
+        <v>1348</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>1348</v>
+        <v>2951</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>2951</v>
+        <v>1765</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>1765</v>
+        <v>360</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>360</v>
+        <v>1262</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>1262</v>
+        <v>4306</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>4306</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,106 +5301,106 @@
         <v>0</v>
       </c>
       <c r="U29" s="15" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="V29" s="15" t="n">
+        <v>178</v>
+      </c>
+      <c r="W29" s="15" t="n">
+        <v>278</v>
+      </c>
+      <c r="X29" s="15" t="n">
+        <v>145</v>
+      </c>
+      <c r="Y29" s="15" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z29" s="15" t="n">
+        <v>394</v>
+      </c>
+      <c r="AA29" s="15" t="n">
+        <v>416</v>
+      </c>
+      <c r="AB29" s="15" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC29" s="15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AD29" s="15" t="n">
         <v>230</v>
       </c>
-      <c r="W29" s="15" t="n">
-        <v>178</v>
-      </c>
-      <c r="X29" s="15" t="n">
-        <v>278</v>
-      </c>
-      <c r="Y29" s="15" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z29" s="15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA29" s="15" t="n">
-        <v>394</v>
-      </c>
-      <c r="AB29" s="15" t="n">
-        <v>416</v>
-      </c>
-      <c r="AC29" s="15" t="n">
-        <v>49</v>
-      </c>
-      <c r="AD29" s="15" t="n">
-        <v>301</v>
-      </c>
       <c r="AE29" s="15" t="n">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="AF29" s="15" t="n">
-        <v>124</v>
+        <v>816</v>
       </c>
       <c r="AG29" s="15" t="n">
-        <v>816</v>
+        <v>221</v>
       </c>
       <c r="AH29" s="15" t="n">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="AI29" s="15" t="n">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="AJ29" s="15" t="n">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="AK29" s="15" t="n">
-        <v>433</v>
+        <v>561</v>
       </c>
       <c r="AL29" s="15" t="n">
-        <v>561</v>
+        <v>331</v>
       </c>
       <c r="AM29" s="15" t="n">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="AN29" s="15" t="n">
-        <v>289</v>
+        <v>632</v>
       </c>
       <c r="AO29" s="15" t="n">
-        <v>632</v>
+        <v>395</v>
       </c>
       <c r="AP29" s="15" t="n">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="AQ29" s="15" t="n">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="AR29" s="15" t="n">
-        <v>267</v>
+        <v>700</v>
       </c>
       <c r="AS29" s="15" t="n">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="AT29" s="15" t="n">
-        <v>599</v>
+        <v>1110</v>
       </c>
       <c r="AU29" s="15" t="n">
-        <v>1110</v>
+        <v>553</v>
       </c>
       <c r="AV29" s="15" t="n">
-        <v>553</v>
+        <v>1348</v>
       </c>
       <c r="AW29" s="15" t="n">
-        <v>1348</v>
+        <v>2951</v>
       </c>
       <c r="AX29" s="15" t="n">
-        <v>2951</v>
+        <v>1765</v>
       </c>
       <c r="AY29" s="15" t="n">
-        <v>1765</v>
+        <v>360</v>
       </c>
       <c r="AZ29" s="15" t="n">
-        <v>360</v>
+        <v>1262</v>
       </c>
       <c r="BA29" s="15" t="n">
-        <v>1262</v>
+        <v>4306</v>
       </c>
       <c r="BB29" s="15" t="n">
-        <v>4306</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,8 +5514,8 @@
       <c r="T31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="19" t="s">
-        <v>58</v>
+      <c r="U31" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="19" t="n">
         <v>0</v>
@@ -5730,11 +5730,11 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>-20</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13" t="n">
         <v>0</v>
@@ -5743,25 +5743,25 @@
         <v>0</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE33" s="13" t="n">
-        <v>0</v>
+      <c r="AE33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF33" s="13" t="s">
         <v>58</v>
@@ -5772,27 +5772,27 @@
       <c r="AH33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="13" t="n">
+      <c r="AI33" s="13" t="n">
         <v>-22</v>
       </c>
-      <c r="AK33" s="13" t="s">
-        <v>58</v>
+      <c r="AJ33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="13" t="n">
+        <v>-115</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>-115</v>
+        <v>-178</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>-178</v>
+        <v>-46</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AO33" s="13" t="n">
         <v>-98</v>
       </c>
+      <c r="AO33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP33" s="13" t="s">
         <v>58</v>
       </c>
@@ -5802,32 +5802,32 @@
       <c r="AR33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT33" s="13" t="n">
+      <c r="AS33" s="13" t="n">
         <v>-36</v>
       </c>
-      <c r="AU33" s="13" t="s">
-        <v>58</v>
+      <c r="AT33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU33" s="13" t="n">
+        <v>-152</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>-152</v>
+        <v>-29</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>-31</v>
+        <v>-314</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>-314</v>
+        <v>-53</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>-53</v>
-      </c>
-      <c r="BA33" s="13" t="n">
         <v>-22</v>
+      </c>
+      <c r="BA33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB33" s="13" t="s">
         <v>58</v>
@@ -5887,11 +5887,11 @@
       <c r="T34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="15" t="s">
-        <v>58</v>
+      <c r="U34" s="15" t="n">
+        <v>-20</v>
       </c>
       <c r="V34" s="15" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="W34" s="15" t="n">
         <v>0</v>
@@ -5900,19 +5900,19 @@
         <v>0</v>
       </c>
       <c r="Y34" s="15" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="Z34" s="15" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AB34" s="15" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AC34" s="15" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="15" t="n">
         <v>0</v>
@@ -5930,61 +5930,61 @@
         <v>0</v>
       </c>
       <c r="AI34" s="15" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AJ34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="15" t="n">
+        <v>-115</v>
+      </c>
+      <c r="AL34" s="15" t="n">
+        <v>-178</v>
+      </c>
+      <c r="AM34" s="15" t="n">
+        <v>-46</v>
+      </c>
+      <c r="AN34" s="15" t="n">
+        <v>-98</v>
+      </c>
+      <c r="AO34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="AT34" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="15" t="n">
+        <v>-152</v>
+      </c>
+      <c r="AV34" s="15" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AW34" s="15" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AX34" s="15" t="n">
+        <v>-314</v>
+      </c>
+      <c r="AY34" s="15" t="n">
+        <v>-53</v>
+      </c>
+      <c r="AZ34" s="15" t="n">
         <v>-22</v>
       </c>
-      <c r="AK34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="15" t="n">
-        <v>-115</v>
-      </c>
-      <c r="AM34" s="15" t="n">
-        <v>-178</v>
-      </c>
-      <c r="AN34" s="15" t="n">
-        <v>-46</v>
-      </c>
-      <c r="AO34" s="15" t="n">
-        <v>-98</v>
-      </c>
-      <c r="AP34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="15" t="n">
-        <v>-36</v>
-      </c>
-      <c r="AU34" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="15" t="n">
-        <v>-152</v>
-      </c>
-      <c r="AW34" s="15" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AX34" s="15" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AY34" s="15" t="n">
-        <v>-314</v>
-      </c>
-      <c r="AZ34" s="15" t="n">
-        <v>-53</v>
-      </c>
       <c r="BA34" s="15" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="15" t="n">
         <v>0</v>
@@ -6045,106 +6045,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="19" t="n">
-        <v>0</v>
+        <v>7187</v>
       </c>
       <c r="V35" s="19" t="n">
-        <v>7187</v>
+        <v>6209</v>
       </c>
       <c r="W35" s="19" t="n">
-        <v>6209</v>
+        <v>6609</v>
       </c>
       <c r="X35" s="19" t="n">
-        <v>6609</v>
+        <v>6566</v>
       </c>
       <c r="Y35" s="19" t="n">
-        <v>6566</v>
+        <v>5267</v>
       </c>
       <c r="Z35" s="19" t="n">
-        <v>5267</v>
+        <v>6192</v>
       </c>
       <c r="AA35" s="19" t="n">
-        <v>6192</v>
+        <v>6710</v>
       </c>
       <c r="AB35" s="19" t="n">
-        <v>6710</v>
+        <v>5839</v>
       </c>
       <c r="AC35" s="19" t="n">
-        <v>5839</v>
+        <v>6851</v>
       </c>
       <c r="AD35" s="19" t="n">
-        <v>6851</v>
+        <v>4435</v>
       </c>
       <c r="AE35" s="19" t="n">
-        <v>4435</v>
+        <v>6885</v>
       </c>
       <c r="AF35" s="19" t="n">
-        <v>6885</v>
+        <v>6410</v>
       </c>
       <c r="AG35" s="19" t="n">
-        <v>6410</v>
+        <v>5950</v>
       </c>
       <c r="AH35" s="19" t="n">
-        <v>5950</v>
+        <v>6615</v>
       </c>
       <c r="AI35" s="19" t="n">
-        <v>6615</v>
+        <v>7368</v>
       </c>
       <c r="AJ35" s="19" t="n">
-        <v>7368</v>
+        <v>5184</v>
       </c>
       <c r="AK35" s="19" t="n">
-        <v>5184</v>
+        <v>6257</v>
       </c>
       <c r="AL35" s="19" t="n">
-        <v>6257</v>
+        <v>5262</v>
       </c>
       <c r="AM35" s="19" t="n">
-        <v>5262</v>
+        <v>5566</v>
       </c>
       <c r="AN35" s="19" t="n">
-        <v>5566</v>
+        <v>5172</v>
       </c>
       <c r="AO35" s="19" t="n">
-        <v>5172</v>
+        <v>8214</v>
       </c>
       <c r="AP35" s="19" t="n">
-        <v>8214</v>
+        <v>5509</v>
       </c>
       <c r="AQ35" s="19" t="n">
-        <v>5509</v>
+        <v>5464</v>
       </c>
       <c r="AR35" s="19" t="n">
-        <v>5464</v>
+        <v>5752</v>
       </c>
       <c r="AS35" s="19" t="n">
-        <v>5752</v>
+        <v>5560</v>
       </c>
       <c r="AT35" s="19" t="n">
-        <v>5560</v>
+        <v>6336</v>
       </c>
       <c r="AU35" s="19" t="n">
-        <v>6336</v>
+        <v>5983</v>
       </c>
       <c r="AV35" s="19" t="n">
-        <v>5983</v>
+        <v>5365</v>
       </c>
       <c r="AW35" s="19" t="n">
-        <v>5365</v>
+        <v>6339</v>
       </c>
       <c r="AX35" s="19" t="n">
-        <v>6339</v>
+        <v>5546</v>
       </c>
       <c r="AY35" s="19" t="n">
-        <v>5546</v>
+        <v>5249</v>
       </c>
       <c r="AZ35" s="19" t="n">
-        <v>5249</v>
+        <v>11555</v>
       </c>
       <c r="BA35" s="19" t="n">
-        <v>11555</v>
+        <v>14105</v>
       </c>
       <c r="BB35" s="19" t="n">
-        <v>14105</v>
+        <v>12599</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,107 +6637,107 @@
       <c r="T42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>58</v>
+      <c r="U42" s="13" t="n">
+        <v>298383</v>
       </c>
       <c r="V42" s="13" t="n">
-        <v>298383</v>
+        <v>272343</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>272343</v>
+        <v>291425</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>291425</v>
+        <v>306967</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>306967</v>
+        <v>270572</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>270572</v>
+        <v>318576</v>
       </c>
       <c r="AA42" s="13" t="n">
-        <v>318576</v>
+        <v>366936</v>
       </c>
       <c r="AB42" s="13" t="n">
-        <v>366936</v>
+        <v>354501</v>
       </c>
       <c r="AC42" s="13" t="n">
-        <v>354501</v>
+        <v>393711</v>
       </c>
       <c r="AD42" s="13" t="n">
-        <v>393711</v>
+        <v>265483</v>
       </c>
       <c r="AE42" s="13" t="n">
-        <v>265483</v>
+        <v>566814</v>
       </c>
       <c r="AF42" s="13" t="n">
-        <v>566814</v>
+        <v>486548</v>
       </c>
       <c r="AG42" s="13" t="n">
-        <v>486548</v>
+        <v>478937</v>
       </c>
       <c r="AH42" s="13" t="n">
-        <v>478937</v>
+        <v>548114</v>
       </c>
       <c r="AI42" s="13" t="n">
-        <v>548114</v>
+        <v>608349</v>
       </c>
       <c r="AJ42" s="13" t="n">
-        <v>608349</v>
+        <v>459663</v>
       </c>
       <c r="AK42" s="13" t="n">
-        <v>459663</v>
+        <v>591309</v>
       </c>
       <c r="AL42" s="13" t="n">
-        <v>591309</v>
+        <v>520563</v>
       </c>
       <c r="AM42" s="13" t="n">
-        <v>520563</v>
+        <v>547437</v>
       </c>
       <c r="AN42" s="13" t="n">
-        <v>547437</v>
+        <v>478847</v>
       </c>
       <c r="AO42" s="13" t="n">
-        <v>478847</v>
+        <v>819282</v>
       </c>
       <c r="AP42" s="13" t="n">
-        <v>819282</v>
+        <v>535334</v>
       </c>
       <c r="AQ42" s="13" t="n">
-        <v>535334</v>
+        <v>620594</v>
       </c>
       <c r="AR42" s="13" t="n">
-        <v>620594</v>
+        <v>658930</v>
       </c>
       <c r="AS42" s="13" t="n">
-        <v>658930</v>
+        <v>695370</v>
       </c>
       <c r="AT42" s="13" t="n">
-        <v>695370</v>
+        <v>717328</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>717328</v>
+        <v>789737</v>
       </c>
       <c r="AV42" s="13" t="n">
-        <v>789737</v>
+        <v>581460</v>
       </c>
       <c r="AW42" s="13" t="n">
-        <v>581460</v>
+        <v>486985</v>
       </c>
       <c r="AX42" s="13" t="n">
-        <v>486985</v>
+        <v>585547</v>
       </c>
       <c r="AY42" s="13" t="n">
-        <v>585547</v>
+        <v>702937</v>
       </c>
       <c r="AZ42" s="13" t="n">
-        <v>702937</v>
+        <v>1467006</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>1467006</v>
+        <v>1335204</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>1335204</v>
+        <v>1248855</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,106 +6795,106 @@
         <v>0</v>
       </c>
       <c r="U43" s="15" t="n">
-        <v>0</v>
+        <v>298383</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>298383</v>
+        <v>272343</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>272343</v>
+        <v>291425</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>291425</v>
+        <v>306967</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>306967</v>
+        <v>270572</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>270572</v>
+        <v>318576</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>318576</v>
+        <v>366936</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>366936</v>
+        <v>354501</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>354501</v>
+        <v>393711</v>
       </c>
       <c r="AD43" s="15" t="n">
-        <v>393711</v>
+        <v>265483</v>
       </c>
       <c r="AE43" s="15" t="n">
-        <v>265483</v>
+        <v>566814</v>
       </c>
       <c r="AF43" s="15" t="n">
-        <v>566814</v>
+        <v>486548</v>
       </c>
       <c r="AG43" s="15" t="n">
-        <v>486548</v>
+        <v>478937</v>
       </c>
       <c r="AH43" s="15" t="n">
-        <v>478937</v>
+        <v>548114</v>
       </c>
       <c r="AI43" s="15" t="n">
-        <v>548114</v>
+        <v>608349</v>
       </c>
       <c r="AJ43" s="15" t="n">
-        <v>608349</v>
+        <v>459663</v>
       </c>
       <c r="AK43" s="15" t="n">
-        <v>459663</v>
+        <v>591309</v>
       </c>
       <c r="AL43" s="15" t="n">
-        <v>591309</v>
+        <v>520563</v>
       </c>
       <c r="AM43" s="15" t="n">
-        <v>520563</v>
+        <v>547437</v>
       </c>
       <c r="AN43" s="15" t="n">
-        <v>547437</v>
+        <v>478847</v>
       </c>
       <c r="AO43" s="15" t="n">
-        <v>478847</v>
+        <v>819282</v>
       </c>
       <c r="AP43" s="15" t="n">
-        <v>819282</v>
+        <v>535334</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>535334</v>
+        <v>620594</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>620594</v>
+        <v>658930</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>658930</v>
+        <v>695370</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>695370</v>
+        <v>717328</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>717328</v>
+        <v>789737</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>789737</v>
+        <v>581460</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>581460</v>
+        <v>486985</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>486985</v>
+        <v>585547</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>585547</v>
+        <v>702937</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>702937</v>
+        <v>1467006</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>1467006</v>
+        <v>1335204</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>1335204</v>
+        <v>1248855</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,107 +7010,107 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>10074</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>10074</v>
+        <v>9062</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>9062</v>
+        <v>14575</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>14575</v>
+        <v>8662</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>8662</v>
+        <v>4510</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>4510</v>
+        <v>28365</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>28365</v>
+        <v>22887</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>22887</v>
+        <v>2658</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>2658</v>
+        <v>16256</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>16256</v>
+        <v>14932</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>14932</v>
+        <v>6656</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>6656</v>
+        <v>45588</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>45588</v>
+        <v>12627</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>12627</v>
+        <v>23104</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>23104</v>
+        <v>31685</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>31685</v>
+        <v>26356</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>26356</v>
+        <v>38493</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>38493</v>
+        <v>25960</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>25960</v>
+        <v>21936</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>21936</v>
+        <v>37834</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>37834</v>
+        <v>23544</v>
       </c>
       <c r="AP45" s="13" t="n">
-        <v>23544</v>
+        <v>19568</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>19568</v>
+        <v>16944</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>16944</v>
+        <v>52101</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>52101</v>
+        <v>45620</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>45620</v>
+        <v>83775</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>83775</v>
+        <v>45274</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>45274</v>
+        <v>118477</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>118477</v>
+        <v>263587</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>263587</v>
+        <v>183437</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>183437</v>
+        <v>41415</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>41415</v>
+        <v>135606</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>135606</v>
+        <v>554010</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>554010</v>
+        <v>406153</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,106 +7168,106 @@
         <v>0</v>
       </c>
       <c r="U46" s="15" t="n">
-        <v>0</v>
+        <v>10074</v>
       </c>
       <c r="V46" s="15" t="n">
-        <v>10074</v>
+        <v>9062</v>
       </c>
       <c r="W46" s="15" t="n">
-        <v>9062</v>
+        <v>14575</v>
       </c>
       <c r="X46" s="15" t="n">
-        <v>14575</v>
+        <v>8662</v>
       </c>
       <c r="Y46" s="15" t="n">
-        <v>8662</v>
+        <v>4510</v>
       </c>
       <c r="Z46" s="15" t="n">
-        <v>4510</v>
+        <v>28365</v>
       </c>
       <c r="AA46" s="15" t="n">
-        <v>28365</v>
+        <v>22887</v>
       </c>
       <c r="AB46" s="15" t="n">
-        <v>22887</v>
+        <v>2658</v>
       </c>
       <c r="AC46" s="15" t="n">
-        <v>2658</v>
+        <v>16256</v>
       </c>
       <c r="AD46" s="15" t="n">
-        <v>16256</v>
+        <v>14932</v>
       </c>
       <c r="AE46" s="15" t="n">
-        <v>14932</v>
+        <v>6656</v>
       </c>
       <c r="AF46" s="15" t="n">
-        <v>6656</v>
+        <v>45588</v>
       </c>
       <c r="AG46" s="15" t="n">
-        <v>45588</v>
+        <v>12627</v>
       </c>
       <c r="AH46" s="15" t="n">
-        <v>12627</v>
+        <v>23104</v>
       </c>
       <c r="AI46" s="15" t="n">
-        <v>23104</v>
+        <v>31685</v>
       </c>
       <c r="AJ46" s="15" t="n">
-        <v>31685</v>
+        <v>26356</v>
       </c>
       <c r="AK46" s="15" t="n">
-        <v>26356</v>
+        <v>38493</v>
       </c>
       <c r="AL46" s="15" t="n">
-        <v>38493</v>
+        <v>25960</v>
       </c>
       <c r="AM46" s="15" t="n">
-        <v>25960</v>
+        <v>21936</v>
       </c>
       <c r="AN46" s="15" t="n">
-        <v>21936</v>
+        <v>37834</v>
       </c>
       <c r="AO46" s="15" t="n">
-        <v>37834</v>
+        <v>23544</v>
       </c>
       <c r="AP46" s="15" t="n">
-        <v>23544</v>
+        <v>19568</v>
       </c>
       <c r="AQ46" s="15" t="n">
-        <v>19568</v>
+        <v>16944</v>
       </c>
       <c r="AR46" s="15" t="n">
-        <v>16944</v>
+        <v>52101</v>
       </c>
       <c r="AS46" s="15" t="n">
-        <v>52101</v>
+        <v>45620</v>
       </c>
       <c r="AT46" s="15" t="n">
-        <v>45620</v>
+        <v>83775</v>
       </c>
       <c r="AU46" s="15" t="n">
-        <v>83775</v>
+        <v>45274</v>
       </c>
       <c r="AV46" s="15" t="n">
-        <v>45274</v>
+        <v>118477</v>
       </c>
       <c r="AW46" s="15" t="n">
-        <v>118477</v>
+        <v>263587</v>
       </c>
       <c r="AX46" s="15" t="n">
-        <v>263587</v>
+        <v>183437</v>
       </c>
       <c r="AY46" s="15" t="n">
-        <v>183437</v>
+        <v>41415</v>
       </c>
       <c r="AZ46" s="15" t="n">
-        <v>41415</v>
+        <v>135606</v>
       </c>
       <c r="BA46" s="15" t="n">
-        <v>135606</v>
+        <v>554010</v>
       </c>
       <c r="BB46" s="15" t="n">
-        <v>554010</v>
+        <v>406153</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,8 +7383,8 @@
       <c r="T48" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="19" t="s">
-        <v>58</v>
+      <c r="U48" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V48" s="20" t="n">
         <v>0</v>
@@ -7599,11 +7599,11 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>-790</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="W50" s="13" t="n">
         <v>0</v>
@@ -7612,19 +7612,19 @@
         <v>0</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="13" t="n">
         <v>0</v>
@@ -7642,25 +7642,25 @@
         <v>0</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>-1987</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>0</v>
+        <v>-9754</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>-9754</v>
+        <v>-14982</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>-14982</v>
+        <v>-3637</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>-3637</v>
+        <v>-8660</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="13" t="n">
         <v>0</v>
@@ -7672,31 +7672,31 @@
         <v>0</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>-4459</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>0</v>
+        <v>-20975</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>-20975</v>
+        <v>-4087</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>-4087</v>
+        <v>-4838</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>-4838</v>
+        <v>-46969</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>-46969</v>
+        <v>-7542</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>-7542</v>
+        <v>-2958</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>-2958</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="13" t="n">
         <v>0</v>
@@ -7758,11 +7758,11 @@
       <c r="T51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="15" t="s">
-        <v>58</v>
+      <c r="U51" s="21" t="n">
+        <v>-790</v>
       </c>
       <c r="V51" s="21" t="n">
-        <v>-790</v>
+        <v>0</v>
       </c>
       <c r="W51" s="21" t="n">
         <v>0</v>
@@ -7771,19 +7771,19 @@
         <v>0</v>
       </c>
       <c r="Y51" s="21" t="n">
-        <v>0</v>
+        <v>-1552</v>
       </c>
       <c r="Z51" s="21" t="n">
-        <v>-1552</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AB51" s="21" t="n">
-        <v>0</v>
+        <v>-977</v>
       </c>
       <c r="AC51" s="21" t="n">
-        <v>-977</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="21" t="n">
         <v>0</v>
@@ -7801,25 +7801,25 @@
         <v>0</v>
       </c>
       <c r="AI51" s="21" t="n">
-        <v>0</v>
+        <v>-1987</v>
       </c>
       <c r="AJ51" s="21" t="n">
-        <v>-1987</v>
+        <v>0</v>
       </c>
       <c r="AK51" s="21" t="n">
-        <v>0</v>
+        <v>-9754</v>
       </c>
       <c r="AL51" s="21" t="n">
-        <v>-9754</v>
+        <v>-14982</v>
       </c>
       <c r="AM51" s="21" t="n">
-        <v>-14982</v>
+        <v>-3637</v>
       </c>
       <c r="AN51" s="21" t="n">
-        <v>-3637</v>
+        <v>-8660</v>
       </c>
       <c r="AO51" s="21" t="n">
-        <v>-8660</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="21" t="n">
         <v>0</v>
@@ -7831,31 +7831,31 @@
         <v>0</v>
       </c>
       <c r="AS51" s="21" t="n">
-        <v>0</v>
+        <v>-4459</v>
       </c>
       <c r="AT51" s="21" t="n">
-        <v>-4459</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="21" t="n">
-        <v>0</v>
+        <v>-20975</v>
       </c>
       <c r="AV51" s="21" t="n">
-        <v>-20975</v>
+        <v>-4087</v>
       </c>
       <c r="AW51" s="21" t="n">
-        <v>-4087</v>
+        <v>-4838</v>
       </c>
       <c r="AX51" s="21" t="n">
-        <v>-4838</v>
+        <v>-46969</v>
       </c>
       <c r="AY51" s="21" t="n">
-        <v>-46969</v>
+        <v>-7542</v>
       </c>
       <c r="AZ51" s="21" t="n">
-        <v>-7542</v>
+        <v>-2958</v>
       </c>
       <c r="BA51" s="21" t="n">
-        <v>-2958</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="21" t="n">
         <v>0</v>
@@ -7974,107 +7974,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>-191</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>-191</v>
+        <v>-144</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>-144</v>
+        <v>-151</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>-151</v>
+        <v>-97</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>-97</v>
+        <v>-19</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>-19</v>
+        <v>-39</v>
       </c>
       <c r="AA53" s="13" t="n">
+        <v>-61</v>
+      </c>
+      <c r="AB53" s="13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AC53" s="13" t="n">
+        <v>-74</v>
+      </c>
+      <c r="AD53" s="13" t="n">
         <v>-39</v>
       </c>
-      <c r="AB53" s="13" t="n">
-        <v>-61</v>
-      </c>
-      <c r="AC53" s="13" t="n">
-        <v>-8</v>
-      </c>
-      <c r="AD53" s="13" t="n">
-        <v>-74</v>
-      </c>
       <c r="AE53" s="13" t="n">
-        <v>-39</v>
+        <v>-54</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>-54</v>
+        <v>-25</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>-25</v>
+        <v>-38</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>-38</v>
+        <v>-73</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>-73</v>
+        <v>-43</v>
       </c>
       <c r="AJ53" s="13" t="n">
         <v>-43</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>-43</v>
+        <v>-121</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>-121</v>
+        <v>-73</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>-73</v>
+        <v>-163</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>-163</v>
+        <v>-99</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>-144</v>
+        <v>-270</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>-270</v>
+        <v>-19</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>-19</v>
+        <v>-135</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>-135</v>
+        <v>-37</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>-37</v>
+        <v>-397</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>-397</v>
+        <v>-8349</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>-8349</v>
+        <v>-9695</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>-9695</v>
+        <v>-16312</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>-16312</v>
+        <v>-24729</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>-24729</v>
+        <v>-69610</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>-69610</v>
+        <v>-251732</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>-251732</v>
+        <v>-148404</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>-148404</v>
+        <v>-140245</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8132,106 +8132,106 @@
         <v>0</v>
       </c>
       <c r="U54" s="21" t="n">
-        <v>0</v>
+        <v>307476</v>
       </c>
       <c r="V54" s="21" t="n">
-        <v>307476</v>
+        <v>281261</v>
       </c>
       <c r="W54" s="21" t="n">
-        <v>281261</v>
+        <v>305849</v>
       </c>
       <c r="X54" s="21" t="n">
-        <v>305849</v>
+        <v>315532</v>
       </c>
       <c r="Y54" s="21" t="n">
-        <v>315532</v>
+        <v>273511</v>
       </c>
       <c r="Z54" s="21" t="n">
-        <v>273511</v>
+        <v>346902</v>
       </c>
       <c r="AA54" s="21" t="n">
-        <v>346902</v>
+        <v>389762</v>
       </c>
       <c r="AB54" s="21" t="n">
-        <v>389762</v>
+        <v>356174</v>
       </c>
       <c r="AC54" s="21" t="n">
-        <v>356174</v>
+        <v>409893</v>
       </c>
       <c r="AD54" s="21" t="n">
-        <v>409893</v>
+        <v>280376</v>
       </c>
       <c r="AE54" s="21" t="n">
-        <v>280376</v>
+        <v>573416</v>
       </c>
       <c r="AF54" s="21" t="n">
-        <v>573416</v>
+        <v>532111</v>
       </c>
       <c r="AG54" s="21" t="n">
-        <v>532111</v>
+        <v>491526</v>
       </c>
       <c r="AH54" s="21" t="n">
-        <v>491526</v>
+        <v>571145</v>
       </c>
       <c r="AI54" s="21" t="n">
-        <v>571145</v>
+        <v>638004</v>
       </c>
       <c r="AJ54" s="21" t="n">
-        <v>638004</v>
+        <v>485976</v>
       </c>
       <c r="AK54" s="21" t="n">
-        <v>485976</v>
+        <v>619927</v>
       </c>
       <c r="AL54" s="21" t="n">
-        <v>619927</v>
+        <v>531468</v>
       </c>
       <c r="AM54" s="21" t="n">
-        <v>531468</v>
+        <v>565573</v>
       </c>
       <c r="AN54" s="21" t="n">
-        <v>565573</v>
+        <v>507922</v>
       </c>
       <c r="AO54" s="21" t="n">
-        <v>507922</v>
+        <v>842682</v>
       </c>
       <c r="AP54" s="21" t="n">
-        <v>842682</v>
+        <v>554632</v>
       </c>
       <c r="AQ54" s="21" t="n">
-        <v>554632</v>
+        <v>637519</v>
       </c>
       <c r="AR54" s="21" t="n">
-        <v>637519</v>
+        <v>710896</v>
       </c>
       <c r="AS54" s="21" t="n">
-        <v>710896</v>
+        <v>736494</v>
       </c>
       <c r="AT54" s="21" t="n">
-        <v>736494</v>
+        <v>800706</v>
       </c>
       <c r="AU54" s="21" t="n">
-        <v>800706</v>
+        <v>805687</v>
       </c>
       <c r="AV54" s="21" t="n">
-        <v>805687</v>
+        <v>686155</v>
       </c>
       <c r="AW54" s="21" t="n">
-        <v>686155</v>
+        <v>729422</v>
       </c>
       <c r="AX54" s="21" t="n">
-        <v>729422</v>
+        <v>697286</v>
       </c>
       <c r="AY54" s="21" t="n">
-        <v>697286</v>
+        <v>667200</v>
       </c>
       <c r="AZ54" s="21" t="n">
-        <v>667200</v>
+        <v>1347922</v>
       </c>
       <c r="BA54" s="21" t="n">
-        <v>1347922</v>
+        <v>1740810</v>
       </c>
       <c r="BB54" s="21" t="n">
-        <v>1740810</v>
+        <v>1514763</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,107 +8724,107 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>42766662</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>42766662</v>
+        <v>45157188</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>45157188</v>
+        <v>46031433</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>46031433</v>
+        <v>47806728</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>47806728</v>
+        <v>51794028</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>51794028</v>
+        <v>54945843</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>54945843</v>
+        <v>58299333</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>58299333</v>
+        <v>61078739</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>61078739</v>
+        <v>60108550</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>60108550</v>
+        <v>63135077</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>63135077</v>
+        <v>83835823</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>83835823</v>
+        <v>86976761</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>86976761</v>
+        <v>83598708</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>83598708</v>
+        <v>87390625</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>87390625</v>
+        <v>87759521</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>87759521</v>
+        <v>96750789</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>96750789</v>
+        <v>101756840</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>101756840</v>
+        <v>101891368</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>101891368</v>
+        <v>102843697</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>102843697</v>
+        <v>103244286</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>103244286</v>
+        <v>104780918</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>104780918</v>
+        <v>102948846</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>102948846</v>
+        <v>119413893</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>119413893</v>
+        <v>130429533</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>130429533</v>
+        <v>139157495</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>139157495</v>
+        <v>137261385</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>137261385</v>
+        <v>141479219</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>141479219</v>
+        <v>143712308</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>143712308</v>
+        <v>142434922</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>142434922</v>
+        <v>142990720</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>142990720</v>
+        <v>142237353</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>142237353</v>
+        <v>142220650</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>142220650</v>
+        <v>136259210</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>136259210</v>
+        <v>136591381</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,107 +8940,107 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>43800000</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>43800000</v>
+        <v>50910112</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>50910112</v>
+        <v>52428058</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>52428058</v>
+        <v>59737931</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>59737931</v>
+        <v>60133333</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>60133333</v>
+        <v>71992386</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>71992386</v>
+        <v>55016827</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>55016827</v>
+        <v>54244898</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>54244898</v>
+        <v>54006645</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>54006645</v>
+        <v>64921739</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>64921739</v>
+        <v>53677419</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>53677419</v>
+        <v>55867647</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>55867647</v>
+        <v>57135747</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>57135747</v>
+        <v>67358601</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>67358601</v>
+        <v>69181223</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>69181223</v>
+        <v>60868360</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>60868360</v>
+        <v>68614973</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>68614973</v>
+        <v>78429003</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>78429003</v>
+        <v>75903114</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>75903114</v>
+        <v>59863924</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>59863924</v>
+        <v>59605063</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>59605063</v>
+        <v>63326861</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>63326861</v>
+        <v>63460674</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>63460674</v>
+        <v>74430000</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>74430000</v>
+        <v>76160267</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>76160267</v>
+        <v>75472973</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>75472973</v>
+        <v>81869801</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>81869801</v>
+        <v>87890950</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>87890950</v>
+        <v>89321247</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>89321247</v>
+        <v>103930312</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>103930312</v>
+        <v>115041667</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>115041667</v>
+        <v>107453249</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>107453249</v>
+        <v>128660009</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>128660009</v>
+        <v>117521123</v>
       </c>
     </row>
   </sheetData>
